--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.67833387595041</v>
+        <v>20.6783338759506</v>
       </c>
       <c r="C2">
-        <v>14.19883599435745</v>
+        <v>14.19883599435753</v>
       </c>
       <c r="D2">
-        <v>4.101317178952042</v>
+        <v>4.10131717895179</v>
       </c>
       <c r="F2">
-        <v>34.40781686261191</v>
+        <v>34.40781686261167</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.16694498450544</v>
+        <v>18.16694498450561</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -438,16 +438,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.20678342697337</v>
+        <v>19.2067834269734</v>
       </c>
       <c r="C3">
-        <v>13.22328128387685</v>
+        <v>13.22328128387683</v>
       </c>
       <c r="D3">
-        <v>4.192331979781357</v>
+        <v>4.192331979781243</v>
       </c>
       <c r="F3">
-        <v>32.75634205142627</v>
+        <v>32.75634205142629</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -464,16 +464,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.25694128334197</v>
+        <v>18.25694128334199</v>
       </c>
       <c r="C4">
-        <v>12.59420085849453</v>
+        <v>12.59420085849443</v>
       </c>
       <c r="D4">
-        <v>4.249697832581554</v>
+        <v>4.249697832581932</v>
       </c>
       <c r="F4">
-        <v>31.74643006679945</v>
+        <v>31.74643006679938</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -490,16 +490,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.85803967217004</v>
+        <v>17.85803967217006</v>
       </c>
       <c r="C5">
-        <v>12.33015763383136</v>
+        <v>12.33015763383131</v>
       </c>
       <c r="D5">
-        <v>4.27343225529258</v>
+        <v>4.273432255292516</v>
       </c>
       <c r="F5">
-        <v>31.33622464710946</v>
+        <v>31.33622464710956</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.75725509377318</v>
+        <v>15.75725509377316</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -519,13 +519,13 @@
         <v>17.79108235177689</v>
       </c>
       <c r="C6">
-        <v>12.28584577344767</v>
+        <v>12.28584577344758</v>
       </c>
       <c r="D6">
-        <v>4.277394551051332</v>
+        <v>4.277394551051299</v>
       </c>
       <c r="F6">
-        <v>31.26820194890364</v>
+        <v>31.26820194890399</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.70007285722788</v>
+        <v>15.70007285722785</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -542,16 +542,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25160971125454</v>
+        <v>18.25160971125449</v>
       </c>
       <c r="C7">
-        <v>12.59067116068152</v>
+        <v>12.59067116068153</v>
       </c>
       <c r="D7">
-        <v>4.250016493609948</v>
+        <v>4.250016493609874</v>
       </c>
       <c r="F7">
-        <v>31.74089199290797</v>
+        <v>31.74089199290792</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.09339505559728</v>
+        <v>16.09339505559723</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -571,13 +571,13 @@
         <v>20.18043549478725</v>
       </c>
       <c r="C8">
-        <v>13.86863151445397</v>
+        <v>13.8686315144538</v>
       </c>
       <c r="D8">
-        <v>4.132380750195051</v>
+        <v>4.132380750194735</v>
       </c>
       <c r="F8">
-        <v>33.83769857667803</v>
+        <v>33.83769857667804</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.74138556087702</v>
+        <v>17.74138556087699</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -594,16 +594,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.60473754905403</v>
+        <v>23.60473754905379</v>
       </c>
       <c r="C9">
-        <v>16.14218526283367</v>
+        <v>16.14218526283365</v>
       </c>
       <c r="D9">
-        <v>3.914429664225138</v>
+        <v>3.914429664225302</v>
       </c>
       <c r="F9">
-        <v>37.97310365859216</v>
+        <v>37.97310365859203</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.66933042706284</v>
+        <v>20.66933042706266</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -620,16 +620,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.91645447923142</v>
+        <v>25.91645447923141</v>
       </c>
       <c r="C10">
-        <v>17.68053724799936</v>
+        <v>17.6805372479993</v>
       </c>
       <c r="D10">
-        <v>3.763991588036116</v>
+        <v>3.76399158803603</v>
       </c>
       <c r="F10">
-        <v>41.02156817594861</v>
+        <v>41.02156817594843</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.64742035198206</v>
+        <v>22.64742035198202</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -649,13 +649,13 @@
         <v>26.9273623684765</v>
       </c>
       <c r="C11">
-        <v>18.35421146070059</v>
+        <v>18.35421146070063</v>
       </c>
       <c r="D11">
-        <v>3.698315450997426</v>
+        <v>3.69831545099741</v>
       </c>
       <c r="F11">
-        <v>42.41214801845656</v>
+        <v>42.41214801845661</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -672,16 +672,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.30465101910092</v>
+        <v>27.30465101910111</v>
       </c>
       <c r="C12">
-        <v>18.60579742161939</v>
+        <v>18.60579742161942</v>
       </c>
       <c r="D12">
-        <v>3.673920480616709</v>
+        <v>3.673920480616642</v>
       </c>
       <c r="F12">
-        <v>42.93957400818525</v>
+        <v>42.93957400818555</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.83583485420295</v>
+        <v>23.83583485420307</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -698,16 +698,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.22363491867052</v>
+        <v>27.22363491867046</v>
       </c>
       <c r="C13">
-        <v>18.55176629766319</v>
+        <v>18.55176629766294</v>
       </c>
       <c r="D13">
-        <v>3.679151745547223</v>
+        <v>3.679151745547258</v>
       </c>
       <c r="F13">
-        <v>42.82593958989664</v>
+        <v>42.82593958989646</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.76646628236328</v>
+        <v>23.76646628236318</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -724,16 +724,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.95851071018098</v>
+        <v>26.95851071018091</v>
       </c>
       <c r="C14">
-        <v>18.37497865579364</v>
+        <v>18.3749786557936</v>
       </c>
       <c r="D14">
-        <v>3.696298408507841</v>
+        <v>3.696298408508118</v>
       </c>
       <c r="F14">
-        <v>42.45552055129586</v>
+        <v>42.45552055129576</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.53946887761045</v>
+        <v>23.53946887761035</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -750,16 +750,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.79540617117082</v>
+        <v>26.79540617117078</v>
       </c>
       <c r="C15">
-        <v>18.26624033297619</v>
+        <v>18.26624033297623</v>
       </c>
       <c r="D15">
-        <v>3.706865828413438</v>
+        <v>3.7068658284136</v>
       </c>
       <c r="F15">
-        <v>42.2287493120938</v>
+        <v>42.22874931209371</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.39982784483694</v>
+        <v>23.39982784483688</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -776,16 +776,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.8495977444561</v>
+        <v>25.84959774445605</v>
       </c>
       <c r="C16">
-        <v>17.63600485194977</v>
+        <v>17.63600485194982</v>
       </c>
       <c r="D16">
-        <v>3.768345400425008</v>
+        <v>3.768345400425067</v>
       </c>
       <c r="F16">
-        <v>40.93078920916105</v>
+        <v>40.93078920916115</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.59019607841394</v>
+        <v>22.5901960784139</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -802,13 +802,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25917407110029</v>
+        <v>25.25917407110027</v>
       </c>
       <c r="C17">
-        <v>17.24284269176961</v>
+        <v>17.24284269176949</v>
       </c>
       <c r="D17">
-        <v>3.80681683919431</v>
+        <v>3.806816839194378</v>
       </c>
       <c r="F17">
         <v>40.13567477645088</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.08488078148322</v>
+        <v>22.0848807814832</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -828,16 +828,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.91572461747953</v>
+        <v>24.91572461747956</v>
       </c>
       <c r="C18">
-        <v>17.01423080746745</v>
+        <v>17.01423080746755</v>
       </c>
       <c r="D18">
-        <v>3.829198423141517</v>
+        <v>3.829198423141554</v>
       </c>
       <c r="F18">
-        <v>39.67867917785469</v>
+        <v>39.6786791778545</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.79097374550313</v>
+        <v>21.79097374550316</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -854,16 +854,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.79876722012505</v>
+        <v>24.79876722012515</v>
       </c>
       <c r="C19">
-        <v>16.93639486170602</v>
+        <v>16.93639486170613</v>
       </c>
       <c r="D19">
-        <v>3.836817998529922</v>
+        <v>3.836817998529706</v>
       </c>
       <c r="F19">
-        <v>39.52399892510361</v>
+        <v>39.52399892510374</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.69089322783433</v>
+        <v>21.69089322783443</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -880,16 +880,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.32242220594794</v>
+        <v>25.32242220594784</v>
       </c>
       <c r="C20">
-        <v>17.28495004894997</v>
+        <v>17.28495004894983</v>
       </c>
       <c r="D20">
-        <v>3.802694720119618</v>
+        <v>3.802694720119749</v>
       </c>
       <c r="F20">
-        <v>40.22027990949469</v>
+        <v>40.22027990949468</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.13900819398249</v>
+        <v>22.13900819398238</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -906,16 +906,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.03653107283914</v>
+        <v>27.03653107283898</v>
       </c>
       <c r="C21">
-        <v>18.42699894479185</v>
+        <v>18.4269989447919</v>
       </c>
       <c r="D21">
-        <v>3.69124838362329</v>
+        <v>3.691248383623359</v>
       </c>
       <c r="F21">
-        <v>42.56429562512676</v>
+        <v>42.56429562512623</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.60626768974569</v>
+        <v>23.60626768974556</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -932,16 +932,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.12481043169436</v>
+        <v>28.12481043169437</v>
       </c>
       <c r="C22">
-        <v>19.15301230827666</v>
+        <v>19.15301230827669</v>
       </c>
       <c r="D22">
-        <v>3.62123536921895</v>
+        <v>3.621235369219011</v>
       </c>
       <c r="F22">
-        <v>44.10140799554546</v>
+        <v>44.10140799554549</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.53816649109712</v>
+        <v>24.53816649109715</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -958,16 +958,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.54678100238819</v>
+        <v>27.54678100238815</v>
       </c>
       <c r="C23">
-        <v>18.76730298708459</v>
+        <v>18.76730298708463</v>
       </c>
       <c r="D23">
-        <v>3.658312102811652</v>
+        <v>3.658312102811696</v>
       </c>
       <c r="F23">
-        <v>43.28041322137857</v>
+        <v>43.28041322137846</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.04316320819479</v>
+        <v>24.04316320819476</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -984,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.29384022973817</v>
+        <v>25.29384022973814</v>
       </c>
       <c r="C24">
-        <v>17.26592135929299</v>
+        <v>17.26592135929303</v>
       </c>
       <c r="D24">
-        <v>3.804557513971527</v>
+        <v>3.804557513971541</v>
       </c>
       <c r="F24">
-        <v>40.1820295558255</v>
+        <v>40.18202955582544</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.1145477853277</v>
+        <v>22.11454778532769</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1010,16 +1010,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.71532824900543</v>
+        <v>22.7153282490052</v>
       </c>
       <c r="C25">
-        <v>15.55108515676019</v>
+        <v>15.55108515676026</v>
       </c>
       <c r="D25">
-        <v>3.971865243962386</v>
+        <v>3.971865243962599</v>
       </c>
       <c r="F25">
-        <v>36.85268483292867</v>
+        <v>36.85268483292845</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.90858918810099</v>
+        <v>19.90858918810081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.6783338759506</v>
+        <v>20.67833387595041</v>
       </c>
       <c r="C2">
-        <v>14.19883599435753</v>
+        <v>14.19883599435745</v>
       </c>
       <c r="D2">
-        <v>4.10131717895179</v>
+        <v>4.101317178952042</v>
       </c>
       <c r="F2">
-        <v>34.40781686261167</v>
+        <v>34.40781686261191</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.16694498450561</v>
+        <v>18.16694498450544</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -438,16 +438,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.2067834269734</v>
+        <v>19.20678342697337</v>
       </c>
       <c r="C3">
-        <v>13.22328128387683</v>
+        <v>13.22328128387685</v>
       </c>
       <c r="D3">
-        <v>4.192331979781243</v>
+        <v>4.192331979781357</v>
       </c>
       <c r="F3">
-        <v>32.75634205142629</v>
+        <v>32.75634205142627</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -464,16 +464,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.25694128334199</v>
+        <v>18.25694128334197</v>
       </c>
       <c r="C4">
-        <v>12.59420085849443</v>
+        <v>12.59420085849453</v>
       </c>
       <c r="D4">
-        <v>4.249697832581932</v>
+        <v>4.249697832581554</v>
       </c>
       <c r="F4">
-        <v>31.74643006679938</v>
+        <v>31.74643006679945</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -490,16 +490,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.85803967217006</v>
+        <v>17.85803967217004</v>
       </c>
       <c r="C5">
-        <v>12.33015763383131</v>
+        <v>12.33015763383136</v>
       </c>
       <c r="D5">
-        <v>4.273432255292516</v>
+        <v>4.27343225529258</v>
       </c>
       <c r="F5">
-        <v>31.33622464710956</v>
+        <v>31.33622464710946</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.75725509377316</v>
+        <v>15.75725509377318</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -519,13 +519,13 @@
         <v>17.79108235177689</v>
       </c>
       <c r="C6">
-        <v>12.28584577344758</v>
+        <v>12.28584577344767</v>
       </c>
       <c r="D6">
-        <v>4.277394551051299</v>
+        <v>4.277394551051332</v>
       </c>
       <c r="F6">
-        <v>31.26820194890399</v>
+        <v>31.26820194890364</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.70007285722785</v>
+        <v>15.70007285722788</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -542,16 +542,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25160971125449</v>
+        <v>18.25160971125454</v>
       </c>
       <c r="C7">
-        <v>12.59067116068153</v>
+        <v>12.59067116068152</v>
       </c>
       <c r="D7">
-        <v>4.250016493609874</v>
+        <v>4.250016493609948</v>
       </c>
       <c r="F7">
-        <v>31.74089199290792</v>
+        <v>31.74089199290797</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.09339505559723</v>
+        <v>16.09339505559728</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -571,13 +571,13 @@
         <v>20.18043549478725</v>
       </c>
       <c r="C8">
-        <v>13.8686315144538</v>
+        <v>13.86863151445397</v>
       </c>
       <c r="D8">
-        <v>4.132380750194735</v>
+        <v>4.132380750195051</v>
       </c>
       <c r="F8">
-        <v>33.83769857667804</v>
+        <v>33.83769857667803</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.74138556087699</v>
+        <v>17.74138556087702</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -594,16 +594,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.60473754905379</v>
+        <v>23.60473754905403</v>
       </c>
       <c r="C9">
-        <v>16.14218526283365</v>
+        <v>16.14218526283367</v>
       </c>
       <c r="D9">
-        <v>3.914429664225302</v>
+        <v>3.914429664225138</v>
       </c>
       <c r="F9">
-        <v>37.97310365859203</v>
+        <v>37.97310365859216</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.66933042706266</v>
+        <v>20.66933042706284</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -620,16 +620,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.91645447923141</v>
+        <v>25.91645447923142</v>
       </c>
       <c r="C10">
-        <v>17.6805372479993</v>
+        <v>17.68053724799936</v>
       </c>
       <c r="D10">
-        <v>3.76399158803603</v>
+        <v>3.763991588036116</v>
       </c>
       <c r="F10">
-        <v>41.02156817594843</v>
+        <v>41.02156817594861</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.64742035198202</v>
+        <v>22.64742035198206</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -649,13 +649,13 @@
         <v>26.9273623684765</v>
       </c>
       <c r="C11">
-        <v>18.35421146070063</v>
+        <v>18.35421146070059</v>
       </c>
       <c r="D11">
-        <v>3.69831545099741</v>
+        <v>3.698315450997426</v>
       </c>
       <c r="F11">
-        <v>42.41214801845661</v>
+        <v>42.41214801845656</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -672,16 +672,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.30465101910111</v>
+        <v>27.30465101910092</v>
       </c>
       <c r="C12">
-        <v>18.60579742161942</v>
+        <v>18.60579742161939</v>
       </c>
       <c r="D12">
-        <v>3.673920480616642</v>
+        <v>3.673920480616709</v>
       </c>
       <c r="F12">
-        <v>42.93957400818555</v>
+        <v>42.93957400818525</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.83583485420307</v>
+        <v>23.83583485420295</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -698,16 +698,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.22363491867046</v>
+        <v>27.22363491867052</v>
       </c>
       <c r="C13">
-        <v>18.55176629766294</v>
+        <v>18.55176629766319</v>
       </c>
       <c r="D13">
-        <v>3.679151745547258</v>
+        <v>3.679151745547223</v>
       </c>
       <c r="F13">
-        <v>42.82593958989646</v>
+        <v>42.82593958989664</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.76646628236318</v>
+        <v>23.76646628236328</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -724,16 +724,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.95851071018091</v>
+        <v>26.95851071018098</v>
       </c>
       <c r="C14">
-        <v>18.3749786557936</v>
+        <v>18.37497865579364</v>
       </c>
       <c r="D14">
-        <v>3.696298408508118</v>
+        <v>3.696298408507841</v>
       </c>
       <c r="F14">
-        <v>42.45552055129576</v>
+        <v>42.45552055129586</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.53946887761035</v>
+        <v>23.53946887761045</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -750,16 +750,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.79540617117078</v>
+        <v>26.79540617117082</v>
       </c>
       <c r="C15">
-        <v>18.26624033297623</v>
+        <v>18.26624033297619</v>
       </c>
       <c r="D15">
-        <v>3.7068658284136</v>
+        <v>3.706865828413438</v>
       </c>
       <c r="F15">
-        <v>42.22874931209371</v>
+        <v>42.2287493120938</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.39982784483688</v>
+        <v>23.39982784483694</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -776,16 +776,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.84959774445605</v>
+        <v>25.8495977444561</v>
       </c>
       <c r="C16">
-        <v>17.63600485194982</v>
+        <v>17.63600485194977</v>
       </c>
       <c r="D16">
-        <v>3.768345400425067</v>
+        <v>3.768345400425008</v>
       </c>
       <c r="F16">
-        <v>40.93078920916115</v>
+        <v>40.93078920916105</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.5901960784139</v>
+        <v>22.59019607841394</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -802,13 +802,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25917407110027</v>
+        <v>25.25917407110029</v>
       </c>
       <c r="C17">
-        <v>17.24284269176949</v>
+        <v>17.24284269176961</v>
       </c>
       <c r="D17">
-        <v>3.806816839194378</v>
+        <v>3.80681683919431</v>
       </c>
       <c r="F17">
         <v>40.13567477645088</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.0848807814832</v>
+        <v>22.08488078148322</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -828,16 +828,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.91572461747956</v>
+        <v>24.91572461747953</v>
       </c>
       <c r="C18">
-        <v>17.01423080746755</v>
+        <v>17.01423080746745</v>
       </c>
       <c r="D18">
-        <v>3.829198423141554</v>
+        <v>3.829198423141517</v>
       </c>
       <c r="F18">
-        <v>39.6786791778545</v>
+        <v>39.67867917785469</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.79097374550316</v>
+        <v>21.79097374550313</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -854,16 +854,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.79876722012515</v>
+        <v>24.79876722012505</v>
       </c>
       <c r="C19">
-        <v>16.93639486170613</v>
+        <v>16.93639486170602</v>
       </c>
       <c r="D19">
-        <v>3.836817998529706</v>
+        <v>3.836817998529922</v>
       </c>
       <c r="F19">
-        <v>39.52399892510374</v>
+        <v>39.52399892510361</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.69089322783443</v>
+        <v>21.69089322783433</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -880,16 +880,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.32242220594784</v>
+        <v>25.32242220594794</v>
       </c>
       <c r="C20">
-        <v>17.28495004894983</v>
+        <v>17.28495004894997</v>
       </c>
       <c r="D20">
-        <v>3.802694720119749</v>
+        <v>3.802694720119618</v>
       </c>
       <c r="F20">
-        <v>40.22027990949468</v>
+        <v>40.22027990949469</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.13900819398238</v>
+        <v>22.13900819398249</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -906,16 +906,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.03653107283898</v>
+        <v>27.03653107283914</v>
       </c>
       <c r="C21">
-        <v>18.4269989447919</v>
+        <v>18.42699894479185</v>
       </c>
       <c r="D21">
-        <v>3.691248383623359</v>
+        <v>3.69124838362329</v>
       </c>
       <c r="F21">
-        <v>42.56429562512623</v>
+        <v>42.56429562512676</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.60626768974556</v>
+        <v>23.60626768974569</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -932,16 +932,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.12481043169437</v>
+        <v>28.12481043169436</v>
       </c>
       <c r="C22">
-        <v>19.15301230827669</v>
+        <v>19.15301230827666</v>
       </c>
       <c r="D22">
-        <v>3.621235369219011</v>
+        <v>3.62123536921895</v>
       </c>
       <c r="F22">
-        <v>44.10140799554549</v>
+        <v>44.10140799554546</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24.53816649109715</v>
+        <v>24.53816649109712</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -958,16 +958,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.54678100238815</v>
+        <v>27.54678100238819</v>
       </c>
       <c r="C23">
-        <v>18.76730298708463</v>
+        <v>18.76730298708459</v>
       </c>
       <c r="D23">
-        <v>3.658312102811696</v>
+        <v>3.658312102811652</v>
       </c>
       <c r="F23">
-        <v>43.28041322137846</v>
+        <v>43.28041322137857</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.04316320819476</v>
+        <v>24.04316320819479</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -984,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.29384022973814</v>
+        <v>25.29384022973817</v>
       </c>
       <c r="C24">
-        <v>17.26592135929303</v>
+        <v>17.26592135929299</v>
       </c>
       <c r="D24">
-        <v>3.804557513971541</v>
+        <v>3.804557513971527</v>
       </c>
       <c r="F24">
-        <v>40.18202955582544</v>
+        <v>40.1820295558255</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.11454778532769</v>
+        <v>22.1145477853277</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1010,16 +1010,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.7153282490052</v>
+        <v>22.71532824900543</v>
       </c>
       <c r="C25">
-        <v>15.55108515676026</v>
+        <v>15.55108515676019</v>
       </c>
       <c r="D25">
-        <v>3.971865243962599</v>
+        <v>3.971865243962386</v>
       </c>
       <c r="F25">
-        <v>36.85268483292845</v>
+        <v>36.85268483292867</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.90858918810081</v>
+        <v>19.90858918810099</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,629 +406,704 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.67833387595041</v>
+        <v>20.56847115671063</v>
       </c>
       <c r="C2">
-        <v>14.19883599435745</v>
+        <v>14.06439619560707</v>
       </c>
       <c r="D2">
-        <v>4.101317178952042</v>
+        <v>4.259756548850683</v>
       </c>
       <c r="F2">
-        <v>34.40781686261191</v>
+        <v>34.60847112765894</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.074637754943213</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>18.16694498450544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>18.0367318703134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.20678342697337</v>
+        <v>19.10280186335803</v>
       </c>
       <c r="C3">
-        <v>13.22328128387685</v>
+        <v>13.09068027381119</v>
       </c>
       <c r="D3">
-        <v>4.192331979781357</v>
+        <v>4.352219145255985</v>
       </c>
       <c r="F3">
-        <v>32.75634205142627</v>
+        <v>33.00032386498183</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.085594623707383</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>16.90937274003583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>16.78193278296903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.25694128334197</v>
+        <v>18.15678948193661</v>
       </c>
       <c r="C4">
-        <v>12.59420085849453</v>
+        <v>12.46257367054347</v>
       </c>
       <c r="D4">
-        <v>4.249697832581554</v>
+        <v>4.410410688618933</v>
       </c>
       <c r="F4">
-        <v>31.74643006679945</v>
+        <v>32.01910327688772</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.092457185348149</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>16.09794895312349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>15.97212320767115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.85803967217004</v>
+        <v>17.75950890177685</v>
       </c>
       <c r="C5">
-        <v>12.33015763383136</v>
+        <v>12.19888480472031</v>
       </c>
       <c r="D5">
-        <v>4.27343225529258</v>
+        <v>4.434469263964538</v>
       </c>
       <c r="F5">
-        <v>31.33622464710946</v>
+        <v>31.62109981631534</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.095290591658246</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>15.75725509377318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>15.63206297160009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.79108235177689</v>
+        <v>17.69282456654835</v>
       </c>
       <c r="C6">
-        <v>12.28584577344767</v>
+        <v>12.15462909262786</v>
       </c>
       <c r="D6">
-        <v>4.277394551051332</v>
+        <v>4.438484734649689</v>
       </c>
       <c r="F6">
-        <v>31.26820194890364</v>
+        <v>31.5551334471166</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.095763383245751</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>15.70007285722788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>15.57498441011055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25160971125454</v>
+        <v>18.1514795196998</v>
       </c>
       <c r="C7">
-        <v>12.59067116068152</v>
+        <v>12.45904892927748</v>
       </c>
       <c r="D7">
-        <v>4.250016493609948</v>
+        <v>4.41073376686092</v>
       </c>
       <c r="F7">
-        <v>31.74089199290797</v>
+        <v>32.01372772381863</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.092495244750189</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>16.09339505559728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>15.96757795664043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.18043549478725</v>
+        <v>20.07255829497414</v>
       </c>
       <c r="C8">
-        <v>13.86863151445397</v>
+        <v>13.73485625847883</v>
       </c>
       <c r="D8">
-        <v>4.132380750195051</v>
+        <v>4.291334801337555</v>
       </c>
       <c r="F8">
-        <v>33.83769857667803</v>
+        <v>34.05285216915623</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.078389494548025</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>17.74138556087702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>17.61214616781983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.60473754905403</v>
+        <v>23.48318248216378</v>
       </c>
       <c r="C9">
-        <v>16.14218526283367</v>
+        <v>16.00304656241642</v>
       </c>
       <c r="D9">
-        <v>3.914429664225138</v>
+        <v>4.069224900576294</v>
       </c>
       <c r="F9">
-        <v>37.97310365859216</v>
+        <v>38.09198610320789</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.051653577117921</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>20.66933042706284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>20.53271046260588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.91645447923142</v>
+        <v>25.78547587968865</v>
       </c>
       <c r="C10">
-        <v>17.68053724799936</v>
+        <v>17.53680474348982</v>
       </c>
       <c r="D10">
-        <v>3.763991588036116</v>
+        <v>3.914952384055695</v>
       </c>
       <c r="F10">
-        <v>41.02156817594861</v>
+        <v>41.07988115447233</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.032346203167937</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>22.64742035198206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>22.50494508155018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.9273623684765</v>
+        <v>26.79216461301544</v>
       </c>
       <c r="C11">
-        <v>18.35421146070059</v>
+        <v>18.20823509364856</v>
       </c>
       <c r="D11">
-        <v>3.698315450997426</v>
+        <v>3.847256959066176</v>
       </c>
       <c r="F11">
-        <v>42.41214801845656</v>
+        <v>42.44497386434954</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.023576288860445</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>23.51280093801595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>23.36754324427934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.30465101910092</v>
+        <v>27.16785894754551</v>
       </c>
       <c r="C12">
-        <v>18.60579742161939</v>
+        <v>18.45894679014036</v>
       </c>
       <c r="D12">
-        <v>3.673920480616709</v>
+        <v>3.822046279977973</v>
       </c>
       <c r="F12">
-        <v>42.93957400818525</v>
+        <v>42.96302782918526</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.020251481110001</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>23.83583485420295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>23.68950303161733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.22363491867052</v>
+        <v>27.08718617134722</v>
       </c>
       <c r="C13">
-        <v>18.55176629766319</v>
+        <v>18.40510509768567</v>
       </c>
       <c r="D13">
-        <v>3.679151745547223</v>
+        <v>3.827455704189999</v>
       </c>
       <c r="F13">
-        <v>42.82593958989664</v>
+        <v>42.85139974726034</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.020967808148268</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>23.76646628236328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>23.62036677050244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.95851071018098</v>
+        <v>26.82318176090813</v>
       </c>
       <c r="C14">
-        <v>18.37497865579364</v>
+        <v>18.2289308726038</v>
       </c>
       <c r="D14">
-        <v>3.696298408507841</v>
+        <v>3.845173906051939</v>
       </c>
       <c r="F14">
-        <v>42.45552055129586</v>
+        <v>42.48756987277055</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.023302867360194</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>23.53946887761045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>23.39412324886493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.79540617117082</v>
+        <v>26.66076336881461</v>
       </c>
       <c r="C15">
-        <v>18.26624033297619</v>
+        <v>18.12056499570436</v>
       </c>
       <c r="D15">
-        <v>3.706865828413438</v>
+        <v>3.856084376216253</v>
       </c>
       <c r="F15">
-        <v>42.2287493120938</v>
+        <v>42.26487047121319</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.024732476117418</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>23.39982784483694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>23.25494120261819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.8495977444561</v>
+        <v>25.7188957144265</v>
       </c>
       <c r="C16">
-        <v>17.63600485194977</v>
+        <v>17.49241570841122</v>
       </c>
       <c r="D16">
-        <v>3.768345400425008</v>
+        <v>3.919431702232261</v>
       </c>
       <c r="F16">
-        <v>40.93078920916105</v>
+        <v>40.99080799578333</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.032919130734646</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>22.59019607841394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>22.44789999040951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25917407110029</v>
+        <v>25.13090263896675</v>
       </c>
       <c r="C17">
-        <v>17.24284269176961</v>
+        <v>17.10049253153214</v>
       </c>
       <c r="D17">
-        <v>3.80681683919431</v>
+        <v>3.958971109258654</v>
       </c>
       <c r="F17">
-        <v>40.13567477645088</v>
+        <v>40.21087199235495</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.037940911418356</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>22.08488078148322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>21.94414141909605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.91572461747953</v>
+        <v>24.7888579879866</v>
       </c>
       <c r="C18">
-        <v>17.01423080746745</v>
+        <v>16.87257898105244</v>
       </c>
       <c r="D18">
-        <v>3.829198423141517</v>
+        <v>3.981941903087041</v>
       </c>
       <c r="F18">
-        <v>39.67867917785469</v>
+        <v>39.76280245191223</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.040830925939805</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>21.79097374550313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>21.6511188558041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.79876722012505</v>
+        <v>24.67237757871473</v>
       </c>
       <c r="C19">
-        <v>16.93639486170602</v>
+        <v>16.79497707858882</v>
       </c>
       <c r="D19">
-        <v>3.836817998529922</v>
+        <v>3.989756981296518</v>
       </c>
       <c r="F19">
-        <v>39.52399892510361</v>
+        <v>39.61117851017164</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.041809874796358</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>21.69089322783433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>21.55133601597687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.32242220594794</v>
+        <v>25.19389137342857</v>
       </c>
       <c r="C20">
-        <v>17.28495004894997</v>
+        <v>17.14246949027442</v>
       </c>
       <c r="D20">
-        <v>3.802694720119618</v>
+        <v>3.954737971758156</v>
       </c>
       <c r="F20">
-        <v>40.22027990949469</v>
+        <v>40.29384120269505</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.037406205617684</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>22.13900819398249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>21.99810426612475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.03653107283914</v>
+        <v>26.90087317465983</v>
       </c>
       <c r="C21">
-        <v>18.42699894479185</v>
+        <v>18.28077167769509</v>
       </c>
       <c r="D21">
-        <v>3.69124838362329</v>
+        <v>3.839957496485995</v>
       </c>
       <c r="F21">
-        <v>42.56429562512676</v>
+        <v>42.59440212980362</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.022617157457227</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>23.60626768974569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>23.46070121615531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.12481043169436</v>
+        <v>27.98451069552523</v>
       </c>
       <c r="C22">
-        <v>19.15301230827666</v>
+        <v>19.00419121279645</v>
       </c>
       <c r="D22">
-        <v>3.62123536921895</v>
+        <v>3.767460549075924</v>
       </c>
       <c r="F22">
-        <v>44.10140799554546</v>
+        <v>44.1047314544852</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.012926057407623</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>24.53816649109712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>24.38943091116376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.54678100238819</v>
+        <v>27.40895956456873</v>
       </c>
       <c r="C23">
-        <v>18.76730298708459</v>
+        <v>18.61988064783773</v>
       </c>
       <c r="D23">
-        <v>3.658312102811652</v>
+        <v>3.805895412899241</v>
       </c>
       <c r="F23">
-        <v>43.28041322137857</v>
+        <v>43.29789033472273</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.018102831297241</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>24.04316320819479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>23.89613162942748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.29384022973817</v>
+        <v>25.1654266485582</v>
       </c>
       <c r="C24">
-        <v>17.26592135929299</v>
+        <v>17.12349979711407</v>
       </c>
       <c r="D24">
-        <v>3.804557513971527</v>
+        <v>3.956651033387694</v>
       </c>
       <c r="F24">
-        <v>40.1820295558255</v>
+        <v>40.25632982613397</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.037647936576315</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>22.1145477853277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>21.97371829001511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.71532824900543</v>
+        <v>22.59734180327187</v>
       </c>
       <c r="C25">
-        <v>15.55108515676019</v>
+        <v>15.41351135774503</v>
       </c>
       <c r="D25">
-        <v>3.971865243962386</v>
+        <v>4.127892299067558</v>
       </c>
       <c r="F25">
-        <v>36.85268483292867</v>
+        <v>36.99579643259424</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.058809272108464</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>19.90858918810099</v>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>19.77403666694671</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.56847115671063</v>
+        <v>18.98894455766505</v>
       </c>
       <c r="C2">
-        <v>14.06439619560707</v>
+        <v>12.99031710948037</v>
       </c>
       <c r="D2">
-        <v>4.259756548850683</v>
+        <v>9.684317691007911</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>34.60847112765894</v>
+        <v>63.35299655820778</v>
       </c>
       <c r="G2">
-        <v>2.074637754943213</v>
+        <v>2.037879926563861</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -435,28 +444,46 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2">
-        <v>18.0367318703134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>30.05474090649516</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.10280186335803</v>
+        <v>17.5657598396914</v>
       </c>
       <c r="C3">
-        <v>13.09068027381119</v>
+        <v>12.05512428010386</v>
       </c>
       <c r="D3">
-        <v>4.352219145255985</v>
+        <v>9.169987628279239</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>33.00032386498183</v>
+        <v>59.23879913273695</v>
       </c>
       <c r="G3">
-        <v>2.085594623707383</v>
+        <v>2.053316811894489</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -464,28 +491,46 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
       <c r="K3">
-        <v>16.78193278296903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.66911721154016</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.15678948193661</v>
+        <v>16.65506553390069</v>
       </c>
       <c r="C4">
-        <v>12.46257367054347</v>
+        <v>11.45938113991582</v>
       </c>
       <c r="D4">
-        <v>4.410410688618933</v>
+        <v>8.849418224943646</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>32.01910327688772</v>
+        <v>56.64309885881111</v>
       </c>
       <c r="G4">
-        <v>2.092457185348149</v>
+        <v>2.062864210976859</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -493,28 +538,46 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4">
-        <v>15.97212320767115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.16365842964655</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.75950890177685</v>
+        <v>16.27432036629908</v>
       </c>
       <c r="C5">
-        <v>12.19888480472031</v>
+        <v>11.21092495309947</v>
       </c>
       <c r="D5">
-        <v>4.434469263964538</v>
+        <v>8.717520378014139</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>31.62109981631534</v>
+        <v>55.56742591839592</v>
       </c>
       <c r="G5">
-        <v>2.095290591658246</v>
+        <v>2.066780576633275</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -522,28 +585,46 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
-        <v>15.63206297160009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.53864401142233</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69282456654835</v>
+        <v>16.21050643970918</v>
       </c>
       <c r="C6">
-        <v>12.15462909262786</v>
+        <v>11.1693182674128</v>
       </c>
       <c r="D6">
-        <v>4.438484734649689</v>
+        <v>8.695541406413078</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>31.5551334471166</v>
+        <v>55.38772364044637</v>
       </c>
       <c r="G6">
-        <v>2.095763383245751</v>
+        <v>2.067432662542515</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -551,28 +632,46 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6">
-        <v>15.57498441011055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.43413059554691</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.1514795196998</v>
+        <v>16.64997011348497</v>
       </c>
       <c r="C7">
-        <v>12.45904892927748</v>
+        <v>11.45605373014272</v>
       </c>
       <c r="D7">
-        <v>4.41073376686092</v>
+        <v>8.847644575866719</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>32.01372772381863</v>
+        <v>56.62866477508658</v>
       </c>
       <c r="G7">
-        <v>2.092495244750189</v>
+        <v>2.06291691408964</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -580,28 +679,46 @@
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
-        <v>15.96757795664043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.15527750521836</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.07255829497414</v>
+        <v>18.50564763349686</v>
       </c>
       <c r="C8">
-        <v>13.73485625847883</v>
+        <v>12.67215636867363</v>
       </c>
       <c r="D8">
-        <v>4.291334801337555</v>
+        <v>9.507915132511947</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>34.05285216915623</v>
+        <v>61.94851609681687</v>
       </c>
       <c r="G8">
-        <v>2.078389494548025</v>
+        <v>2.043193636689864</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -609,28 +726,46 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
-        <v>17.61214616781983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.23976472266346</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.48318248216378</v>
+        <v>21.87114748487586</v>
       </c>
       <c r="C9">
-        <v>16.00304656241642</v>
+        <v>14.90051610210414</v>
       </c>
       <c r="D9">
-        <v>4.069224900576294</v>
+        <v>10.77019883993809</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>38.09198610320789</v>
+        <v>71.86503700603775</v>
       </c>
       <c r="G9">
-        <v>2.051653577117921</v>
+        <v>2.004611023413211</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -638,28 +773,46 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="K9">
-        <v>20.53271046260588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>35.03951688754434</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.78547587968865</v>
+        <v>24.208657831789</v>
       </c>
       <c r="C10">
-        <v>17.53680474348982</v>
+        <v>16.46666964743383</v>
       </c>
       <c r="D10">
-        <v>3.914952384055695</v>
+        <v>11.68981925237346</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>41.07988115447233</v>
+        <v>78.91795014474445</v>
       </c>
       <c r="G10">
-        <v>2.032346203167937</v>
+        <v>1.975523797788912</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -667,28 +820,46 @@
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
       <c r="K10">
-        <v>22.50494508155018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>39.28772365226668</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.79216461301544</v>
+        <v>25.25179817900306</v>
       </c>
       <c r="C11">
-        <v>18.20823509364856</v>
+        <v>17.17076852922002</v>
       </c>
       <c r="D11">
-        <v>3.847256959066176</v>
+        <v>12.1109409196403</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>42.44497386434954</v>
+        <v>82.10556408878136</v>
       </c>
       <c r="G11">
-        <v>2.023576288860445</v>
+        <v>1.961882012196716</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -696,28 +867,46 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
       <c r="K11">
-        <v>23.36754324427934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>41.2652313394623</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.16785894754551</v>
+        <v>25.64488589366828</v>
       </c>
       <c r="C12">
-        <v>18.45894679014036</v>
+        <v>17.43695051523831</v>
       </c>
       <c r="D12">
-        <v>3.822046279977973</v>
+        <v>12.27137017585854</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>42.96302782918526</v>
+        <v>83.32459012466083</v>
       </c>
       <c r="G12">
-        <v>2.020251481110001</v>
+        <v>1.956628225218818</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -725,28 +914,46 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
       <c r="K12">
-        <v>23.68950303161733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>42.02664626735037</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.08718617134722</v>
+        <v>25.56029485410348</v>
       </c>
       <c r="C13">
-        <v>18.40510509768567</v>
+        <v>17.37962921497341</v>
       </c>
       <c r="D13">
-        <v>3.827455704189999</v>
+        <v>12.23676493096852</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>42.85139974726034</v>
+        <v>83.05724593940388</v>
       </c>
       <c r="G13">
-        <v>2.020967808148268</v>
+        <v>1.957764200966712</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -754,28 +961,46 @@
       <c r="I13">
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
       <c r="K13">
-        <v>23.62036677050244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.86197651138016</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.82318176090813</v>
+        <v>25.28416987283433</v>
       </c>
       <c r="C14">
-        <v>18.2289308726038</v>
+        <v>17.19267141126667</v>
       </c>
       <c r="D14">
-        <v>3.845173906051939</v>
+        <v>12.12411632640934</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>42.48756987277055</v>
+        <v>82.20488660092926</v>
       </c>
       <c r="G14">
-        <v>2.023302867360194</v>
+        <v>1.961451743126704</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -783,28 +1008,46 @@
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
       <c r="K14">
-        <v>23.39412324886493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>41.32757698014876</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.66076336881461</v>
+        <v>25.11481761386118</v>
       </c>
       <c r="C15">
-        <v>18.12056499570436</v>
+        <v>17.07812195552443</v>
       </c>
       <c r="D15">
-        <v>3.856084376216253</v>
+        <v>12.05526098880108</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>42.26487047121319</v>
+        <v>81.68555239748015</v>
       </c>
       <c r="G15">
-        <v>2.024732476117418</v>
+        <v>1.96369799368074</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -812,28 +1055,46 @@
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
       <c r="K15">
-        <v>23.25494120261819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>41.00210482944966</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.7188957144265</v>
+        <v>24.14015793757866</v>
       </c>
       <c r="C16">
-        <v>17.49241570841122</v>
+        <v>16.4205477220532</v>
       </c>
       <c r="D16">
-        <v>3.919431702232261</v>
+        <v>11.6623972327766</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>40.99080799578333</v>
+        <v>78.70949727089747</v>
       </c>
       <c r="G16">
-        <v>2.032919130734646</v>
+        <v>1.976404798155369</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -841,28 +1102,46 @@
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
       <c r="K16">
-        <v>22.44789999040951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>39.15986139613381</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.13090263896675</v>
+        <v>23.53768650325688</v>
       </c>
       <c r="C17">
-        <v>17.10049253153214</v>
+        <v>16.01549287132259</v>
       </c>
       <c r="D17">
-        <v>3.958971109258654</v>
+        <v>11.42243860004399</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>40.21087199235495</v>
+        <v>76.88067977385164</v>
       </c>
       <c r="G17">
-        <v>2.037940911418356</v>
+        <v>1.984077096129827</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -870,28 +1149,46 @@
       <c r="I17">
         <v>0</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
       <c r="K17">
-        <v>21.94414141909605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>38.04485502840268</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.7888579879866</v>
+        <v>23.18918895174838</v>
       </c>
       <c r="C18">
-        <v>16.87257898105244</v>
+        <v>15.78167578944561</v>
       </c>
       <c r="D18">
-        <v>3.981941903087041</v>
+        <v>11.28463956294341</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>39.76280245191223</v>
+        <v>75.82655731272003</v>
       </c>
       <c r="G18">
-        <v>2.040830925939805</v>
+        <v>1.988453577682367</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -899,28 +1196,46 @@
       <c r="I18">
         <v>0</v>
       </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
       <c r="K18">
-        <v>21.6511188558041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.40729391578872</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.67237757871473</v>
+        <v>23.070828855385</v>
       </c>
       <c r="C19">
-        <v>16.79497707858882</v>
+        <v>15.70234476145504</v>
       </c>
       <c r="D19">
-        <v>3.989756981296518</v>
+        <v>11.23800684045069</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>39.61117851017164</v>
+        <v>75.46917405594556</v>
       </c>
       <c r="G19">
-        <v>2.041809874796358</v>
+        <v>1.989929866807981</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -928,28 +1243,46 @@
       <c r="I19">
         <v>0</v>
       </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
       <c r="K19">
-        <v>21.55133601597687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>37.19192387066128</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.19389137342857</v>
+        <v>23.60201835408611</v>
       </c>
       <c r="C20">
-        <v>17.14246949027442</v>
+        <v>16.0586936926122</v>
       </c>
       <c r="D20">
-        <v>3.954737971758156</v>
+        <v>11.44795653894733</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>40.29384120269505</v>
+        <v>77.0755693522928</v>
       </c>
       <c r="G20">
-        <v>2.037406205617684</v>
+        <v>1.983264317953157</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -957,28 +1290,46 @@
       <c r="I20">
         <v>0</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20">
-        <v>21.99810426612475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>38.16312348041322</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.90087317465983</v>
+        <v>25.36531774029397</v>
       </c>
       <c r="C21">
-        <v>18.28077167769509</v>
+        <v>17.24759058435116</v>
       </c>
       <c r="D21">
-        <v>3.839957496485995</v>
+        <v>12.15717237900712</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>42.59440212980362</v>
+        <v>82.45397165031285</v>
       </c>
       <c r="G21">
-        <v>2.022617157457227</v>
+        <v>1.9603712886184</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -986,28 +1337,46 @@
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
       <c r="K21">
-        <v>23.46070121615531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41.48413998947821</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.98451069552523</v>
+        <v>26.50715615216452</v>
       </c>
       <c r="C22">
-        <v>19.00419121279645</v>
+        <v>18.02250639506576</v>
       </c>
       <c r="D22">
-        <v>3.767460549075924</v>
+        <v>12.62671567406521</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>44.1047314544852</v>
+        <v>86.05838364078944</v>
       </c>
       <c r="G22">
-        <v>2.012926057407623</v>
+        <v>1.944875327866787</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1015,28 +1384,46 @@
       <c r="I22">
         <v>0</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
       <c r="K22">
-        <v>24.38943091116376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.7329849516009</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.40895956456873</v>
+        <v>25.89831080675878</v>
       </c>
       <c r="C23">
-        <v>18.61988064783773</v>
+        <v>17.60880995505696</v>
       </c>
       <c r="D23">
-        <v>3.805895412899241</v>
+        <v>12.37531335450723</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>43.29789033472273</v>
+        <v>84.12640883418689</v>
       </c>
       <c r="G23">
-        <v>2.018102831297241</v>
+        <v>1.953207049407881</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1044,28 +1431,46 @@
       <c r="I23">
         <v>0</v>
       </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
       <c r="K23">
-        <v>23.89613162942748</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.52277301714079</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.1654266485582</v>
+        <v>23.5729406251573</v>
       </c>
       <c r="C24">
-        <v>17.12349979711407</v>
+        <v>16.03916560133296</v>
       </c>
       <c r="D24">
-        <v>3.956651033387694</v>
+        <v>11.43641943079033</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>40.25632982613397</v>
+        <v>76.98746847377468</v>
       </c>
       <c r="G24">
-        <v>2.037647936576315</v>
+        <v>1.983631880144941</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1073,28 +1478,46 @@
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
       <c r="K24">
-        <v>21.97371829001511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>38.10964392326871</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.59734180327187</v>
+        <v>20.98704037684593</v>
       </c>
       <c r="C25">
-        <v>15.41351135774503</v>
+        <v>14.3121861525671</v>
       </c>
       <c r="D25">
-        <v>4.127892299067558</v>
+        <v>10.43122542065814</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>36.99579643259424</v>
+        <v>69.23092460668458</v>
       </c>
       <c r="G25">
-        <v>2.058809272108464</v>
+        <v>2.015110235838077</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1102,8 +1525,23 @@
       <c r="I25">
         <v>0</v>
       </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
       <c r="K25">
-        <v>19.77403666694671</v>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.48518818881986</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98894455766505</v>
+        <v>22.07663203563126</v>
       </c>
       <c r="C2">
-        <v>12.99031710948037</v>
+        <v>11.39404044049917</v>
       </c>
       <c r="D2">
-        <v>9.684317691007911</v>
+        <v>3.852126722539465</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.35299655820778</v>
+        <v>20.42837504740201</v>
       </c>
       <c r="G2">
-        <v>2.037879926563861</v>
+        <v>2.064131436175427</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.105230574141244</v>
       </c>
       <c r="M2">
-        <v>30.05474090649516</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.55620612419356</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.9262093539131</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.5657598396914</v>
+        <v>20.57399532459049</v>
       </c>
       <c r="C3">
-        <v>12.05512428010386</v>
+        <v>11.04083056855082</v>
       </c>
       <c r="D3">
-        <v>9.169987628279239</v>
+        <v>3.767605083699224</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.23879913273695</v>
+        <v>19.66648333419083</v>
       </c>
       <c r="G3">
-        <v>2.053316811894489</v>
+        <v>2.069999940616098</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.810635360171686</v>
       </c>
       <c r="M3">
-        <v>27.66911721154016</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.73203110219064</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.55381374399959</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.65506553390069</v>
+        <v>19.59730932864312</v>
       </c>
       <c r="C4">
-        <v>11.45938113991582</v>
+        <v>10.81791113873504</v>
       </c>
       <c r="D4">
-        <v>8.849418224943646</v>
+        <v>3.714475911186407</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.64309885881111</v>
+        <v>19.20546850208289</v>
       </c>
       <c r="G4">
-        <v>2.062864210976859</v>
+        <v>2.073713751600209</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.629304206397154</v>
       </c>
       <c r="M4">
-        <v>26.16365842964655</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.84338775876082</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.33808120545459</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.27432036629908</v>
+        <v>19.1856176026063</v>
       </c>
       <c r="C5">
-        <v>11.21092495309947</v>
+        <v>10.72564167774133</v>
       </c>
       <c r="D5">
-        <v>8.717520378014139</v>
+        <v>3.692533839583381</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.56742591839592</v>
+        <v>19.01956654830427</v>
       </c>
       <c r="G5">
-        <v>2.066780576633275</v>
+        <v>2.075255693717411</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.555400387403869</v>
       </c>
       <c r="M5">
-        <v>25.53864401142233</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.88962379480691</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.25344241462578</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.21050643970918</v>
+        <v>19.11642740444393</v>
       </c>
       <c r="C6">
-        <v>11.1693182674128</v>
+        <v>10.71023703864211</v>
       </c>
       <c r="D6">
-        <v>8.695541406413078</v>
+        <v>3.688873329010223</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.38772364044637</v>
+        <v>18.98882415157785</v>
       </c>
       <c r="G6">
-        <v>2.067432662542515</v>
+        <v>2.075513476436293</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.543131288805423</v>
       </c>
       <c r="M6">
-        <v>25.43413059554691</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11.89735312145605</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.2395864474715</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.64997011348497</v>
+        <v>19.59181263557613</v>
       </c>
       <c r="C7">
-        <v>11.45605373014272</v>
+        <v>10.81667241345875</v>
       </c>
       <c r="D7">
-        <v>8.847644575866719</v>
+        <v>3.714181147878916</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.62866477508658</v>
+        <v>19.20295305542603</v>
       </c>
       <c r="G7">
-        <v>2.06291691408964</v>
+        <v>2.073734430281706</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.628307411492886</v>
       </c>
       <c r="M7">
-        <v>26.15527750521836</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.84400783898737</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.33692645636602</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.50564763349686</v>
+        <v>21.56968833198192</v>
       </c>
       <c r="C8">
-        <v>12.67215636867363</v>
+        <v>11.2735615483729</v>
       </c>
       <c r="D8">
-        <v>9.507915132511947</v>
+        <v>3.823250190170075</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.94851609681687</v>
+        <v>20.16441576081372</v>
       </c>
       <c r="G8">
-        <v>2.043193636689864</v>
+        <v>2.066132415014541</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.003806169518054</v>
       </c>
       <c r="M8">
-        <v>29.23976472266346</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.61612625943707</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.79514424591364</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.87114748487586</v>
+        <v>25.02351743807375</v>
       </c>
       <c r="C9">
-        <v>14.90051610210414</v>
+        <v>12.11793166563459</v>
       </c>
       <c r="D9">
-        <v>10.77019883993809</v>
+        <v>4.026603555715294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.86503700603775</v>
+        <v>22.09331076405755</v>
       </c>
       <c r="G9">
-        <v>2.004611023413211</v>
+        <v>2.05206630441875</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.7325733853696</v>
       </c>
       <c r="M9">
-        <v>35.03951688754434</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.19615755648024</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>16.79467424172795</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.208657831789</v>
+        <v>27.3080399678793</v>
       </c>
       <c r="C10">
-        <v>16.46666964743383</v>
+        <v>12.70265229560974</v>
       </c>
       <c r="D10">
-        <v>11.68981925237346</v>
+        <v>4.16866783222944</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.91795014474445</v>
+        <v>23.52480862956294</v>
       </c>
       <c r="G10">
-        <v>1.975523797788912</v>
+        <v>2.042192107062904</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.258754896449298</v>
       </c>
       <c r="M10">
-        <v>39.28772365226668</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.90400619864564</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.58819869814782</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.25179817900306</v>
+        <v>28.29373453335577</v>
       </c>
       <c r="C11">
-        <v>17.17076852922002</v>
+        <v>12.96020770930182</v>
       </c>
       <c r="D11">
-        <v>12.1109409196403</v>
+        <v>4.231532839650336</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.10556408878136</v>
+        <v>24.17715654370865</v>
       </c>
       <c r="G11">
-        <v>1.961882012196716</v>
+        <v>2.037787433399798</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.495371985998437</v>
       </c>
       <c r="M11">
-        <v>41.2652313394623</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10.77469619394366</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.96152061156878</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.64488589366828</v>
+        <v>28.65940514788503</v>
       </c>
       <c r="C12">
-        <v>17.43695051523831</v>
+        <v>13.05647549340654</v>
       </c>
       <c r="D12">
-        <v>12.27137017585854</v>
+        <v>4.255072385774373</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.32459012466083</v>
+        <v>24.42422530595138</v>
       </c>
       <c r="G12">
-        <v>1.956628225218818</v>
+        <v>2.036130912842834</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.584530477791436</v>
       </c>
       <c r="M12">
-        <v>42.02664626735037</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10.72625299287463</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.10462347676015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.56029485410348</v>
+        <v>28.58098723619271</v>
       </c>
       <c r="C13">
-        <v>17.37962921497341</v>
+        <v>13.03579937734123</v>
       </c>
       <c r="D13">
-        <v>12.23676493096852</v>
+        <v>4.250014748657946</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.05724593940388</v>
+        <v>24.37101456509206</v>
       </c>
       <c r="G13">
-        <v>1.957764200966712</v>
+        <v>2.036487184035121</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.565348966258339</v>
       </c>
       <c r="M13">
-        <v>41.86197651138016</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10.73666266473154</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>18.073727161011</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.28416987283433</v>
+        <v>28.32396995692825</v>
       </c>
       <c r="C14">
-        <v>17.19267141126667</v>
+        <v>12.96815328408645</v>
       </c>
       <c r="D14">
-        <v>12.12411632640934</v>
+        <v>4.233474854032773</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.20488660092926</v>
+        <v>24.19748286973805</v>
       </c>
       <c r="G14">
-        <v>1.961451743126704</v>
+        <v>2.037650927890746</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.502716229600043</v>
       </c>
       <c r="M14">
-        <v>41.32757698014876</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>10.77070019508892</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.97325922527448</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.11481761386118</v>
+        <v>28.16555426829993</v>
       </c>
       <c r="C15">
-        <v>17.07812195552443</v>
+        <v>12.9265522968609</v>
       </c>
       <c r="D15">
-        <v>12.05526098880108</v>
+        <v>4.223308680081214</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.68555239748015</v>
+        <v>24.09119155157763</v>
       </c>
       <c r="G15">
-        <v>1.96369799368074</v>
+        <v>2.038365209627758</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.464292899663915</v>
       </c>
       <c r="M15">
-        <v>41.00210482944966</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>10.79161763051553</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.91194444563216</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.14015793757866</v>
+        <v>27.24255426464032</v>
       </c>
       <c r="C16">
-        <v>16.4205477220532</v>
+        <v>12.68564624828221</v>
       </c>
       <c r="D16">
-        <v>11.6623972327766</v>
+        <v>4.164522896677167</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.70949727089747</v>
+        <v>23.48218773089738</v>
       </c>
       <c r="G16">
-        <v>1.976404798155369</v>
+        <v>2.042481624473295</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.243231763670623</v>
       </c>
       <c r="M16">
-        <v>39.15986139613381</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>10.91252973399286</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.56404593673694</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.53768650325688</v>
+        <v>26.66268554248937</v>
       </c>
       <c r="C17">
-        <v>16.01549287132259</v>
+        <v>12.53565946683773</v>
       </c>
       <c r="D17">
-        <v>11.42243860004399</v>
+        <v>4.127999200795855</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.88067977385164</v>
+        <v>23.10877784883385</v>
       </c>
       <c r="G17">
-        <v>1.984077096129827</v>
+        <v>2.045028476402772</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.106876627980627</v>
       </c>
       <c r="M17">
-        <v>38.04485502840268</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>10.98762948998692</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.35375147832916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.18918895174838</v>
+        <v>26.32411356005629</v>
       </c>
       <c r="C18">
-        <v>15.78167578944561</v>
+        <v>12.44859936966549</v>
       </c>
       <c r="D18">
-        <v>11.28463956294341</v>
+        <v>4.106826698363278</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.82655731272003</v>
+        <v>22.8941163413915</v>
       </c>
       <c r="G18">
-        <v>1.988453577682367</v>
+        <v>2.046501631447332</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.028192512618835</v>
       </c>
       <c r="M18">
-        <v>37.40729391578872</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.0311623034387</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>17.23395961427541</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.070828855385</v>
+        <v>26.2086088503349</v>
       </c>
       <c r="C19">
-        <v>15.70234476145504</v>
+        <v>12.41898798842627</v>
       </c>
       <c r="D19">
-        <v>11.23800684045069</v>
+        <v>4.099630119848586</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.46917405594556</v>
+        <v>22.82145963527037</v>
       </c>
       <c r="G19">
-        <v>1.989929866807981</v>
+        <v>2.047001869505457</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.001509075460818</v>
       </c>
       <c r="M19">
-        <v>37.19192387066128</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.04595954093461</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.19360142820141</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.60201835408611</v>
+        <v>26.7249351083253</v>
       </c>
       <c r="C20">
-        <v>16.0586936926122</v>
+        <v>12.55170813479372</v>
       </c>
       <c r="D20">
-        <v>11.44795653894733</v>
+        <v>4.131904388620532</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.0755693522928</v>
+        <v>23.14851719797453</v>
       </c>
       <c r="G20">
-        <v>1.983264317953157</v>
+        <v>2.044756511120883</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.121418772831626</v>
       </c>
       <c r="M20">
-        <v>38.16312348041322</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.97960002711044</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>17.37601754042345</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.36531774029397</v>
+        <v>28.39966727140256</v>
       </c>
       <c r="C21">
-        <v>17.24759058435116</v>
+        <v>12.98805721209262</v>
       </c>
       <c r="D21">
-        <v>12.15717237900712</v>
+        <v>4.238340339509309</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.45397165031285</v>
+        <v>24.24845312746021</v>
       </c>
       <c r="G21">
-        <v>1.9603712886184</v>
+        <v>2.037308806963648</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.521125342480206</v>
       </c>
       <c r="M21">
-        <v>41.48413998947821</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.76068826213814</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>18.0027223207394</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.50715615216452</v>
+        <v>29.45001245402639</v>
       </c>
       <c r="C22">
-        <v>18.02250639506576</v>
+        <v>13.26585804376501</v>
       </c>
       <c r="D22">
-        <v>12.62671567406521</v>
+        <v>4.306346435191832</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.05838364078944</v>
+        <v>24.96751598631956</v>
       </c>
       <c r="G22">
-        <v>1.944875327866787</v>
+        <v>2.032507375980134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.779758548829207</v>
       </c>
       <c r="M22">
-        <v>43.7329849516009</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.62067477918856</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.42240441181155</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.89831080675878</v>
+        <v>28.89342936292162</v>
       </c>
       <c r="C23">
-        <v>17.60880995505696</v>
+        <v>13.11828004602392</v>
       </c>
       <c r="D23">
-        <v>12.37531335450723</v>
+        <v>4.270196606862643</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.12640883418689</v>
+        <v>24.58375427887187</v>
       </c>
       <c r="G23">
-        <v>1.953207049407881</v>
+        <v>2.035064329025693</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.641971941127936</v>
       </c>
       <c r="M23">
-        <v>42.52277301714079</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.69511962156914</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.19749984159388</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.5729406251573</v>
+        <v>26.6968082775941</v>
       </c>
       <c r="C24">
-        <v>16.03916560133296</v>
+        <v>12.54445511559747</v>
       </c>
       <c r="D24">
-        <v>11.43641943079033</v>
+        <v>4.13013939587746</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.98746847377468</v>
+        <v>23.1305509758285</v>
       </c>
       <c r="G24">
-        <v>1.983631880144941</v>
+        <v>2.04487943870962</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.114845174011052</v>
       </c>
       <c r="M24">
-        <v>38.10964392326871</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.9832290359293</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>17.36594759553087</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.98704037684593</v>
+        <v>24.13403711604767</v>
       </c>
       <c r="C25">
-        <v>14.3121861525671</v>
+        <v>11.8954962603285</v>
       </c>
       <c r="D25">
-        <v>10.43122542065814</v>
+        <v>3.972818092230435</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.23092460668458</v>
+        <v>21.56819627617398</v>
       </c>
       <c r="G25">
-        <v>2.015110235838077</v>
+        <v>2.055786726894641</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.536753378439238</v>
       </c>
       <c r="M25">
-        <v>33.48518818881986</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.30689602357715</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.51369913865856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.07663203563126</v>
+        <v>16.23687527196074</v>
       </c>
       <c r="C2">
-        <v>11.39404044049917</v>
+        <v>10.97483311988117</v>
       </c>
       <c r="D2">
-        <v>3.852126722539465</v>
+        <v>4.625982044684009</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.42837504740201</v>
+        <v>24.49587423497817</v>
       </c>
       <c r="G2">
-        <v>2.064131436175427</v>
+        <v>3.62426158369357</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.105230574141244</v>
+        <v>10.67733898653682</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.55620612419356</v>
+        <v>17.23471492076004</v>
       </c>
       <c r="O2">
-        <v>15.9262093539131</v>
+        <v>21.76283323354574</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.57399532459049</v>
+        <v>15.71121012333023</v>
       </c>
       <c r="C3">
-        <v>11.04083056855082</v>
+        <v>10.85214211637441</v>
       </c>
       <c r="D3">
-        <v>3.767605083699224</v>
+        <v>4.599635227530389</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.66648333419083</v>
+        <v>24.44060631502906</v>
       </c>
       <c r="G3">
-        <v>2.069999940616098</v>
+        <v>3.626510406709676</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.810635360171686</v>
+        <v>10.6503850238575</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.73203110219064</v>
+        <v>17.29137618343138</v>
       </c>
       <c r="O3">
-        <v>15.55381374399959</v>
+        <v>21.78344730174181</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.59730932864312</v>
+        <v>15.38194902442727</v>
       </c>
       <c r="C4">
-        <v>10.81791113873504</v>
+        <v>10.77568604964794</v>
       </c>
       <c r="D4">
-        <v>3.714475911186407</v>
+        <v>4.583199294595151</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.20546850208289</v>
+        <v>24.41452419494837</v>
       </c>
       <c r="G4">
-        <v>2.073713751600209</v>
+        <v>3.627964938196083</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.629304206397154</v>
+        <v>10.63602602037264</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.84338775876082</v>
+        <v>17.32804434418824</v>
       </c>
       <c r="O4">
-        <v>15.33808120545459</v>
+        <v>21.80225419771837</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.1856176026063</v>
+        <v>15.24634991432424</v>
       </c>
       <c r="C5">
-        <v>10.72564167774133</v>
+        <v>10.74426732844416</v>
       </c>
       <c r="D5">
-        <v>3.692533839583381</v>
+        <v>4.576438691249759</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.01956654830427</v>
+        <v>24.40587674953144</v>
       </c>
       <c r="G5">
-        <v>2.075255693717411</v>
+        <v>3.628576275378022</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.555400387403869</v>
+        <v>10.63072963986819</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.88962379480691</v>
+        <v>17.3434602235942</v>
       </c>
       <c r="O5">
-        <v>15.25344241462578</v>
+        <v>21.81146082610087</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.11642740444393</v>
+        <v>15.22375439311891</v>
       </c>
       <c r="C6">
-        <v>10.71023703864211</v>
+        <v>10.73903502981833</v>
       </c>
       <c r="D6">
-        <v>3.688873329010223</v>
+        <v>4.575312369946895</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.98882415157785</v>
+        <v>24.40456065568589</v>
       </c>
       <c r="G6">
-        <v>2.075513476436293</v>
+        <v>3.62867891283972</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.543131288805423</v>
+        <v>10.62988381254986</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.89735312145605</v>
+        <v>17.3460486374641</v>
       </c>
       <c r="O6">
-        <v>15.2395864474715</v>
+        <v>21.81308262721674</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.59181263557613</v>
+        <v>15.38012575468908</v>
       </c>
       <c r="C7">
-        <v>10.81667241345875</v>
+        <v>10.77526336075663</v>
       </c>
       <c r="D7">
-        <v>3.714181147878916</v>
+        <v>4.58310837013037</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.20295305542603</v>
+        <v>24.41439954362041</v>
       </c>
       <c r="G7">
-        <v>2.073734430281706</v>
+        <v>3.627973107497864</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.628307411492886</v>
+        <v>10.63595233917926</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.84400783898737</v>
+        <v>17.32825033028614</v>
       </c>
       <c r="O7">
-        <v>15.33692645636602</v>
+        <v>21.80237212093565</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.56968833198192</v>
+        <v>16.05709714921334</v>
       </c>
       <c r="C8">
-        <v>11.2735615483729</v>
+        <v>10.93277443372141</v>
       </c>
       <c r="D8">
-        <v>3.823250190170075</v>
+        <v>4.616952751421771</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.16441576081372</v>
+        <v>24.47519274913984</v>
       </c>
       <c r="G8">
-        <v>2.066132415014541</v>
+        <v>3.62502170824209</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.003806169518054</v>
+        <v>10.66759318270069</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.61612625943707</v>
+        <v>17.25386261614936</v>
       </c>
       <c r="O8">
-        <v>15.79514424591364</v>
+        <v>21.76866257153377</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.02351743807375</v>
+        <v>17.32460043766047</v>
       </c>
       <c r="C9">
-        <v>12.11793166563459</v>
+        <v>11.23187064095501</v>
       </c>
       <c r="D9">
-        <v>4.026603555715294</v>
+        <v>4.681169084101947</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.09331076405755</v>
+        <v>24.65631283181272</v>
       </c>
       <c r="G9">
-        <v>2.05206630441875</v>
+        <v>3.619816421225496</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.7325733853696</v>
+        <v>10.74682013720139</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.19615755648024</v>
+        <v>17.12283949794999</v>
       </c>
       <c r="O9">
-        <v>16.79467424172795</v>
+        <v>21.75148556035845</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.3080399678793</v>
+        <v>18.20911698939092</v>
       </c>
       <c r="C10">
-        <v>12.70265229560974</v>
+        <v>11.44451778795506</v>
       </c>
       <c r="D10">
-        <v>4.16866783222944</v>
+        <v>4.726907187550234</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.52480862956294</v>
+        <v>24.82642275188659</v>
       </c>
       <c r="G10">
-        <v>2.042192107062904</v>
+        <v>3.616343315108737</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.258754896449298</v>
+        <v>10.81519562968939</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.90400619864564</v>
+        <v>17.03556146753696</v>
       </c>
       <c r="O10">
-        <v>17.58819869814782</v>
+        <v>21.76881966905951</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.29373453335577</v>
+        <v>18.59955789393729</v>
       </c>
       <c r="C11">
-        <v>12.96020770930182</v>
+        <v>11.53948323005029</v>
       </c>
       <c r="D11">
-        <v>4.231532839650336</v>
+        <v>4.747374341937801</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.17715654370865</v>
+        <v>24.91165515013332</v>
       </c>
       <c r="G11">
-        <v>2.037787433399798</v>
+        <v>3.614838758743937</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.495371985998437</v>
+        <v>10.8484336928371</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.77469619394366</v>
+        <v>16.99779303224632</v>
       </c>
       <c r="O11">
-        <v>17.96152061156878</v>
+        <v>21.78321764058817</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.65940514788503</v>
+        <v>18.74556309148964</v>
       </c>
       <c r="C12">
-        <v>13.05647549340654</v>
+        <v>11.57517100744043</v>
       </c>
       <c r="D12">
-        <v>4.255072385774373</v>
+        <v>4.755073603953459</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.42422530595138</v>
+        <v>24.94503881192478</v>
       </c>
       <c r="G12">
-        <v>2.036130912842834</v>
+        <v>3.614279799678875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.584530477791436</v>
+        <v>10.86131975963754</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.72625299287463</v>
+        <v>16.98376829724988</v>
       </c>
       <c r="O12">
-        <v>18.10462347676015</v>
+        <v>21.78960526726143</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.58098723619271</v>
+        <v>18.71420230044373</v>
       </c>
       <c r="C13">
-        <v>13.03579937734123</v>
+        <v>11.5674974729039</v>
       </c>
       <c r="D13">
-        <v>4.250014748657946</v>
+        <v>4.753417745596193</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.37101456509206</v>
+        <v>24.93780011533229</v>
       </c>
       <c r="G13">
-        <v>2.036487184035121</v>
+        <v>3.614399702780011</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.565348966258339</v>
+        <v>10.85853131359012</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.73666266473154</v>
+        <v>16.98677645310612</v>
       </c>
       <c r="O13">
-        <v>18.073727161011</v>
+        <v>21.78818800187236</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.32396995692825</v>
+        <v>18.61160752868518</v>
       </c>
       <c r="C14">
-        <v>12.96815328408645</v>
+        <v>11.54242487574738</v>
       </c>
       <c r="D14">
-        <v>4.233474854032773</v>
+        <v>4.748008804803751</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.19748286973805</v>
+        <v>24.91437956375841</v>
       </c>
       <c r="G14">
-        <v>2.037650927890746</v>
+        <v>3.614792557038012</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.502716229600043</v>
+        <v>10.84948787755806</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.77070019508892</v>
+        <v>16.99663365519222</v>
       </c>
       <c r="O14">
-        <v>17.97325922527448</v>
+        <v>21.78372441681467</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.16555426829993</v>
+        <v>18.5485211969485</v>
       </c>
       <c r="C15">
-        <v>12.9265522968609</v>
+        <v>11.52703099845916</v>
       </c>
       <c r="D15">
-        <v>4.223308680081214</v>
+        <v>4.744688932853547</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.09119155157763</v>
+        <v>24.90017744581385</v>
       </c>
       <c r="G15">
-        <v>2.038365209627758</v>
+        <v>3.615034594344832</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.464292899663915</v>
+        <v>10.84398729594986</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.79161763051553</v>
+        <v>17.00270757017515</v>
       </c>
       <c r="O15">
-        <v>17.91194444563216</v>
+        <v>21.78111211345996</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.24255426464032</v>
+        <v>18.1833491759099</v>
       </c>
       <c r="C16">
-        <v>12.68564624828221</v>
+        <v>11.43827432312125</v>
       </c>
       <c r="D16">
-        <v>4.164522896677167</v>
+        <v>4.725562576128741</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.48218773089738</v>
+        <v>24.82100883494294</v>
       </c>
       <c r="G16">
-        <v>2.042481624473295</v>
+        <v>3.61644315344273</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.243231763670623</v>
+        <v>10.81306576683751</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.91252973399286</v>
+        <v>17.03806858160247</v>
       </c>
       <c r="O16">
-        <v>17.56404593673694</v>
+        <v>21.76800970850168</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.66268554248937</v>
+        <v>17.95617458613125</v>
       </c>
       <c r="C17">
-        <v>12.53565946683773</v>
+        <v>11.38335807711604</v>
       </c>
       <c r="D17">
-        <v>4.127999200795855</v>
+        <v>4.713740542658536</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.10877784883385</v>
+        <v>24.77443768835558</v>
       </c>
       <c r="G17">
-        <v>2.045028476402772</v>
+        <v>3.617326525176424</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.106876627980627</v>
+        <v>10.79463786131924</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.98762948998692</v>
+        <v>17.0602563350648</v>
       </c>
       <c r="O17">
-        <v>17.35375147832916</v>
+        <v>21.7616393886777</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.32411356005629</v>
+        <v>17.82439368913069</v>
       </c>
       <c r="C18">
-        <v>12.44859936966549</v>
+        <v>11.35160632895149</v>
       </c>
       <c r="D18">
-        <v>4.106826698363278</v>
+        <v>4.706909024377916</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.8941163413915</v>
+        <v>24.74839131386407</v>
       </c>
       <c r="G18">
-        <v>2.046501631447332</v>
+        <v>3.617841715356809</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.028192512618835</v>
+        <v>10.78423991815762</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.0311623034387</v>
+        <v>17.07320030471206</v>
       </c>
       <c r="O18">
-        <v>17.23395961427541</v>
+        <v>21.75858847281352</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.2086088503349</v>
+        <v>17.77958748269537</v>
       </c>
       <c r="C19">
-        <v>12.41898798842627</v>
+        <v>11.34082792459674</v>
       </c>
       <c r="D19">
-        <v>4.099630119848586</v>
+        <v>4.704590602199755</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.82145963527037</v>
+        <v>24.73970016707292</v>
       </c>
       <c r="G19">
-        <v>2.047001869505457</v>
+        <v>3.618017370704131</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.001509075460818</v>
+        <v>10.78075414156664</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.04595954093461</v>
+        <v>17.07761422355248</v>
       </c>
       <c r="O19">
-        <v>17.19360142820141</v>
+        <v>21.75766080631066</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.7249351083253</v>
+        <v>17.9804742135387</v>
       </c>
       <c r="C20">
-        <v>12.55170813479372</v>
+        <v>11.38922126219121</v>
       </c>
       <c r="D20">
-        <v>4.131904388620532</v>
+        <v>4.715002326713918</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.14851719797453</v>
+        <v>24.77931880941187</v>
       </c>
       <c r="G20">
-        <v>2.044756511120883</v>
+        <v>3.617231754520263</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.121418772831626</v>
+        <v>10.79657876083921</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.97960002711044</v>
+        <v>17.05787556422845</v>
       </c>
       <c r="O20">
-        <v>17.37601754042345</v>
+        <v>21.76225406872376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.39966727140256</v>
+        <v>18.64179317726596</v>
       </c>
       <c r="C21">
-        <v>12.98805721209262</v>
+        <v>11.54979688019764</v>
       </c>
       <c r="D21">
-        <v>4.238340339509309</v>
+        <v>4.74959895060776</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.24845312746021</v>
+        <v>24.92122885152143</v>
       </c>
       <c r="G21">
-        <v>2.037308806963648</v>
+        <v>3.614676873989819</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.521125342480206</v>
+        <v>10.85213608500177</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.76068826213814</v>
+        <v>16.99373083553415</v>
       </c>
       <c r="O21">
-        <v>18.0027223207394</v>
+        <v>21.78501010621012</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.45001245402639</v>
+        <v>19.06319122488627</v>
       </c>
       <c r="C22">
-        <v>13.26585804376501</v>
+        <v>11.65313924934476</v>
       </c>
       <c r="D22">
-        <v>4.306346435191832</v>
+        <v>4.771910280583334</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.96751598631956</v>
+        <v>25.02042250037508</v>
       </c>
       <c r="G22">
-        <v>2.032507375980134</v>
+        <v>3.613069942585156</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.779758548829207</v>
+        <v>10.89018822783218</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.62067477918856</v>
+        <v>16.9534247812041</v>
       </c>
       <c r="O22">
-        <v>18.42240441181155</v>
+        <v>21.80533367810715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.89342936292162</v>
+        <v>18.83931190913022</v>
       </c>
       <c r="C23">
-        <v>13.11828004602392</v>
+        <v>11.59813635482749</v>
       </c>
       <c r="D23">
-        <v>4.270196606862643</v>
+        <v>4.760030503825228</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.58375427887187</v>
+        <v>24.96689841962952</v>
       </c>
       <c r="G23">
-        <v>2.035064329025693</v>
+        <v>3.613921861282411</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.641971941127936</v>
+        <v>10.8697221926542</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.69511962156914</v>
+        <v>16.97478927537881</v>
       </c>
       <c r="O23">
-        <v>18.19749984159388</v>
+        <v>21.79398843355983</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.6968082775941</v>
+        <v>17.96949200236309</v>
       </c>
       <c r="C24">
-        <v>12.54445511559747</v>
+        <v>11.38657107439299</v>
       </c>
       <c r="D24">
-        <v>4.13013939587746</v>
+        <v>4.714431982572047</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.1305509758285</v>
+        <v>24.7771097853434</v>
       </c>
       <c r="G24">
-        <v>2.04487943870962</v>
+        <v>3.617274577503058</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.114845174011052</v>
+        <v>10.7957006675308</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.9832290359293</v>
+        <v>17.0589513252288</v>
       </c>
       <c r="O24">
-        <v>17.36594759553087</v>
+        <v>21.76197426708743</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.13403711604767</v>
+        <v>16.98924504394755</v>
       </c>
       <c r="C25">
-        <v>11.8954962603285</v>
+        <v>11.15212332692213</v>
       </c>
       <c r="D25">
-        <v>3.972818092230435</v>
+        <v>4.664040689753968</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.56819627617398</v>
+        <v>24.60075028677333</v>
       </c>
       <c r="G25">
-        <v>2.055786726894641</v>
+        <v>3.621162636745784</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.536753378439238</v>
+        <v>10.72357748912665</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.30689602357715</v>
+        <v>17.15670203904389</v>
       </c>
       <c r="O25">
-        <v>16.51369913865856</v>
+        <v>21.75087766831054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.23687527196074</v>
+        <v>22.07663203563122</v>
       </c>
       <c r="C2">
-        <v>10.97483311988117</v>
+        <v>11.39404044049916</v>
       </c>
       <c r="D2">
-        <v>4.625982044684009</v>
+        <v>3.852126722539645</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.49587423497817</v>
+        <v>20.42837504740204</v>
       </c>
       <c r="G2">
-        <v>3.62426158369357</v>
+        <v>2.064131436175427</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.67733898653682</v>
+        <v>8.105230574141304</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.23471492076004</v>
+        <v>11.55620612419359</v>
       </c>
       <c r="O2">
-        <v>21.76283323354574</v>
+        <v>15.92620935391318</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.71121012333023</v>
+        <v>20.57399532459048</v>
       </c>
       <c r="C3">
-        <v>10.85214211637441</v>
+        <v>11.0408305685507</v>
       </c>
       <c r="D3">
-        <v>4.599635227530389</v>
+        <v>3.767605083699405</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.44060631502906</v>
+        <v>19.66648333419089</v>
       </c>
       <c r="G3">
-        <v>3.626510406709676</v>
+        <v>2.069999940616098</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.6503850238575</v>
+        <v>7.810635360171686</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.29137618343138</v>
+        <v>11.73203110219071</v>
       </c>
       <c r="O3">
-        <v>21.78344730174181</v>
+        <v>15.55381374399973</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.38194902442727</v>
+        <v>19.59730932864312</v>
       </c>
       <c r="C4">
-        <v>10.77568604964794</v>
+        <v>10.81791113873459</v>
       </c>
       <c r="D4">
-        <v>4.583199294595151</v>
+        <v>3.714475911186521</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.41452419494837</v>
+        <v>19.20546850208293</v>
       </c>
       <c r="G4">
-        <v>3.627964938196083</v>
+        <v>2.073713751600211</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.63602602037264</v>
+        <v>7.629304206397201</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.32804434418824</v>
+        <v>11.84338775876082</v>
       </c>
       <c r="O4">
-        <v>21.80225419771837</v>
+        <v>15.33808120545467</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.24634991432424</v>
+        <v>19.18561760260625</v>
       </c>
       <c r="C5">
-        <v>10.74426732844416</v>
+        <v>10.72564167774155</v>
       </c>
       <c r="D5">
-        <v>4.576438691249759</v>
+        <v>3.6925338395835</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.40587674953144</v>
+        <v>19.01956654830421</v>
       </c>
       <c r="G5">
-        <v>3.628576275378022</v>
+        <v>2.075255693717544</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.63072963986819</v>
+        <v>7.555400387403835</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.3434602235942</v>
+        <v>11.88962379480694</v>
       </c>
       <c r="O5">
-        <v>21.81146082610087</v>
+        <v>15.25344241462576</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.22375439311891</v>
+        <v>19.11642740444385</v>
       </c>
       <c r="C6">
-        <v>10.73903502981833</v>
+        <v>10.71023703864254</v>
       </c>
       <c r="D6">
-        <v>4.575312369946895</v>
+        <v>3.688873329010466</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.40456065568589</v>
+        <v>18.98882415157773</v>
       </c>
       <c r="G6">
-        <v>3.62867891283972</v>
+        <v>2.075513476436292</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.62988381254986</v>
+        <v>7.543131288805388</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.3460486374641</v>
+        <v>11.89735312145605</v>
       </c>
       <c r="O6">
-        <v>21.81308262721674</v>
+        <v>15.23958644747147</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.38012575468908</v>
+        <v>19.59181263557606</v>
       </c>
       <c r="C7">
-        <v>10.77526336075663</v>
+        <v>10.81667241345899</v>
       </c>
       <c r="D7">
-        <v>4.58310837013037</v>
+        <v>3.714181147878845</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.41439954362041</v>
+        <v>19.20295305542603</v>
       </c>
       <c r="G7">
-        <v>3.627973107497864</v>
+        <v>2.073734430281841</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.63595233917926</v>
+        <v>7.628307411492888</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.32825033028614</v>
+        <v>11.84400783898737</v>
       </c>
       <c r="O7">
-        <v>21.80237212093565</v>
+        <v>15.33692645636602</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.05709714921334</v>
+        <v>21.56968833198202</v>
       </c>
       <c r="C8">
-        <v>10.93277443372141</v>
+        <v>11.27356154837282</v>
       </c>
       <c r="D8">
-        <v>4.616952751421771</v>
+        <v>3.823250190170136</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.47519274913984</v>
+        <v>20.16441576081371</v>
       </c>
       <c r="G8">
-        <v>3.62502170824209</v>
+        <v>2.06613241501414</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.66759318270069</v>
+        <v>8.003806169518041</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.25386261614936</v>
+        <v>11.61612625943703</v>
       </c>
       <c r="O8">
-        <v>21.76866257153377</v>
+        <v>15.7951442459136</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.32460043766047</v>
+        <v>25.02351743807369</v>
       </c>
       <c r="C9">
-        <v>11.23187064095501</v>
+        <v>12.1179316656346</v>
       </c>
       <c r="D9">
-        <v>4.681169084101947</v>
+        <v>4.026603555715284</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.65631283181272</v>
+        <v>22.09331076405758</v>
       </c>
       <c r="G9">
-        <v>3.619816421225496</v>
+        <v>2.052066304419019</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.74682013720139</v>
+        <v>8.732573385369612</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.12283949794999</v>
+        <v>11.19615755648031</v>
       </c>
       <c r="O9">
-        <v>21.75148556035845</v>
+        <v>16.79467424172799</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.20911698939092</v>
+        <v>27.30803996787925</v>
       </c>
       <c r="C10">
-        <v>11.44451778795506</v>
+        <v>12.70265229560978</v>
       </c>
       <c r="D10">
-        <v>4.726907187550234</v>
+        <v>4.168667832229551</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.82642275188659</v>
+        <v>23.52480862956297</v>
       </c>
       <c r="G10">
-        <v>3.616343315108737</v>
+        <v>2.042192107063036</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.81519562968939</v>
+        <v>9.258754896449309</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.03556146753696</v>
+        <v>10.90400619864571</v>
       </c>
       <c r="O10">
-        <v>21.76881966905951</v>
+        <v>17.58819869814788</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.59955789393729</v>
+        <v>28.29373453335574</v>
       </c>
       <c r="C11">
-        <v>11.53948323005029</v>
+        <v>12.96020770930191</v>
       </c>
       <c r="D11">
-        <v>4.747374341937801</v>
+        <v>4.231532839650209</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.91165515013332</v>
+        <v>24.17715654370865</v>
       </c>
       <c r="G11">
-        <v>3.614838758743937</v>
+        <v>2.037787433399932</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.8484336928371</v>
+        <v>9.495371985998448</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.99779303224632</v>
+        <v>10.7746961939437</v>
       </c>
       <c r="O11">
-        <v>21.78321764058817</v>
+        <v>17.96152061156878</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.74556309148964</v>
+        <v>28.65940514788507</v>
       </c>
       <c r="C12">
-        <v>11.57517100744043</v>
+        <v>13.05647549340651</v>
       </c>
       <c r="D12">
-        <v>4.755073603953459</v>
+        <v>4.255072385774373</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.94503881192478</v>
+        <v>24.42422530595135</v>
       </c>
       <c r="G12">
-        <v>3.614279799678875</v>
+        <v>2.036130912842704</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.86131975963754</v>
+        <v>9.584530477791446</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.98376829724988</v>
+        <v>10.72625299287463</v>
       </c>
       <c r="O12">
-        <v>21.78960526726143</v>
+        <v>18.10462347676011</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.71420230044373</v>
+        <v>28.58098723619279</v>
       </c>
       <c r="C13">
-        <v>11.5674974729039</v>
+        <v>13.03579937734115</v>
       </c>
       <c r="D13">
-        <v>4.753417745596193</v>
+        <v>4.250014748657847</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.93780011533229</v>
+        <v>24.3710145650921</v>
       </c>
       <c r="G13">
-        <v>3.614399702780011</v>
+        <v>2.036487184035387</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.85853131359012</v>
+        <v>9.565348966258339</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.98677645310612</v>
+        <v>10.73666266473153</v>
       </c>
       <c r="O13">
-        <v>21.78818800187236</v>
+        <v>18.07372716101101</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.61160752868518</v>
+        <v>28.32396995692826</v>
       </c>
       <c r="C14">
-        <v>11.54242487574738</v>
+        <v>12.96815328408636</v>
       </c>
       <c r="D14">
-        <v>4.748008804803751</v>
+        <v>4.233474854032882</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.91437956375841</v>
+        <v>24.19748286973805</v>
       </c>
       <c r="G14">
-        <v>3.614792557038012</v>
+        <v>2.037650927890613</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.84948787755806</v>
+        <v>9.502716229600031</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.99663365519222</v>
+        <v>10.77070019508896</v>
       </c>
       <c r="O14">
-        <v>21.78372441681467</v>
+        <v>17.9732592252745</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.5485211969485</v>
+        <v>28.16555426829993</v>
       </c>
       <c r="C15">
-        <v>11.52703099845916</v>
+        <v>12.9265522968607</v>
       </c>
       <c r="D15">
-        <v>4.744688932853547</v>
+        <v>4.223308680081257</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.90017744581385</v>
+        <v>24.09119155157761</v>
       </c>
       <c r="G15">
-        <v>3.615034594344832</v>
+        <v>2.038365209627626</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.84398729594986</v>
+        <v>9.464292899663912</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.00270757017515</v>
+        <v>10.79161763051553</v>
       </c>
       <c r="O15">
-        <v>21.78111211345996</v>
+        <v>17.91194444563217</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.1833491759099</v>
+        <v>27.24255426464024</v>
       </c>
       <c r="C16">
-        <v>11.43827432312125</v>
+        <v>12.6856462482823</v>
       </c>
       <c r="D16">
-        <v>4.725562576128741</v>
+        <v>4.16452289667724</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.82100883494294</v>
+        <v>23.48218773089743</v>
       </c>
       <c r="G16">
-        <v>3.61644315344273</v>
+        <v>2.042481624473294</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.81306576683751</v>
+        <v>9.243231763670632</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.03806858160247</v>
+        <v>10.91252973399296</v>
       </c>
       <c r="O16">
-        <v>21.76800970850168</v>
+        <v>17.56404593673703</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.95617458613125</v>
+        <v>26.66268554248945</v>
       </c>
       <c r="C17">
-        <v>11.38335807711604</v>
+        <v>12.53565946683753</v>
       </c>
       <c r="D17">
-        <v>4.713740542658536</v>
+        <v>4.127999200795855</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.77443768835558</v>
+        <v>23.10877784883389</v>
       </c>
       <c r="G17">
-        <v>3.617326525176424</v>
+        <v>2.045028476402772</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.79463786131924</v>
+        <v>9.106876627980649</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.0602563350648</v>
+        <v>10.98762948998699</v>
       </c>
       <c r="O17">
-        <v>21.7616393886777</v>
+        <v>17.3537514783292</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.82439368913069</v>
+        <v>26.3241135600563</v>
       </c>
       <c r="C18">
-        <v>11.35160632895149</v>
+        <v>12.44859936966549</v>
       </c>
       <c r="D18">
-        <v>4.706909024377916</v>
+        <v>4.106826698363278</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.74839131386407</v>
+        <v>22.89411634139148</v>
       </c>
       <c r="G18">
-        <v>3.617841715356809</v>
+        <v>2.046501631447331</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.78423991815762</v>
+        <v>9.028192512618844</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.07320030471206</v>
+        <v>11.03116230343876</v>
       </c>
       <c r="O18">
-        <v>21.75858847281352</v>
+        <v>17.2339596142754</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.77958748269537</v>
+        <v>26.20860885033495</v>
       </c>
       <c r="C19">
-        <v>11.34082792459674</v>
+        <v>12.4189879884263</v>
       </c>
       <c r="D19">
-        <v>4.704590602199755</v>
+        <v>4.099630119848483</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.73970016707292</v>
+        <v>22.8214596352703</v>
       </c>
       <c r="G19">
-        <v>3.618017370704131</v>
+        <v>2.04700186950559</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.78075414156664</v>
+        <v>9.001509075460799</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.07761422355248</v>
+        <v>11.04595954093448</v>
       </c>
       <c r="O19">
-        <v>21.75766080631066</v>
+        <v>17.1936014282013</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.9804742135387</v>
+        <v>26.72493510832523</v>
       </c>
       <c r="C20">
-        <v>11.38922126219121</v>
+        <v>12.55170813479375</v>
       </c>
       <c r="D20">
-        <v>4.715002326713918</v>
+        <v>4.131904388620419</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.77931880941187</v>
+        <v>23.14851719797455</v>
       </c>
       <c r="G20">
-        <v>3.617231754520263</v>
+        <v>2.044756511121151</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.79657876083921</v>
+        <v>9.121418772831623</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.05787556422845</v>
+        <v>10.97960002711048</v>
       </c>
       <c r="O20">
-        <v>21.76225406872376</v>
+        <v>17.37601754042348</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.64179317726596</v>
+        <v>28.3996672714026</v>
       </c>
       <c r="C21">
-        <v>11.54979688019764</v>
+        <v>12.98805721209254</v>
       </c>
       <c r="D21">
-        <v>4.74959895060776</v>
+        <v>4.238340339509413</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.92122885152143</v>
+        <v>24.24845312746018</v>
       </c>
       <c r="G21">
-        <v>3.614676873989819</v>
+        <v>2.037308806963247</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.85213608500177</v>
+        <v>9.52112534248022</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.99373083553415</v>
+        <v>10.76068826213811</v>
       </c>
       <c r="O21">
-        <v>21.78501010621012</v>
+        <v>18.00272232073938</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.06319122488627</v>
+        <v>29.45001245402647</v>
       </c>
       <c r="C22">
-        <v>11.65313924934476</v>
+        <v>13.26585804376501</v>
       </c>
       <c r="D22">
-        <v>4.771910280583334</v>
+        <v>4.306346435191772</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.02042250037508</v>
+        <v>24.9675159863195</v>
       </c>
       <c r="G22">
-        <v>3.613069942585156</v>
+        <v>2.032507375980266</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.89018822783218</v>
+        <v>9.779758548829227</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.9534247812041</v>
+        <v>10.62067477918844</v>
       </c>
       <c r="O22">
-        <v>21.80533367810715</v>
+        <v>18.42240441181148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.83931190913022</v>
+        <v>28.89342936292165</v>
       </c>
       <c r="C23">
-        <v>11.59813635482749</v>
+        <v>13.11828004602377</v>
       </c>
       <c r="D23">
-        <v>4.760030503825228</v>
+        <v>4.270196606862638</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.96689841962952</v>
+        <v>24.58375427887188</v>
       </c>
       <c r="G23">
-        <v>3.613921861282411</v>
+        <v>2.035064329025692</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.8697221926542</v>
+        <v>9.641971941127933</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.97478927537881</v>
+        <v>10.69511962156911</v>
       </c>
       <c r="O23">
-        <v>21.79398843355983</v>
+        <v>18.19749984159386</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.96949200236309</v>
+        <v>26.69680827759407</v>
       </c>
       <c r="C24">
-        <v>11.38657107439299</v>
+        <v>12.54445511559739</v>
       </c>
       <c r="D24">
-        <v>4.714431982572047</v>
+        <v>4.130139395877538</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.7771097853434</v>
+        <v>23.1305509758285</v>
       </c>
       <c r="G24">
-        <v>3.617274577503058</v>
+        <v>2.044879438709621</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.7957006675308</v>
+        <v>9.114845174011082</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.0589513252288</v>
+        <v>10.98322903592933</v>
       </c>
       <c r="O24">
-        <v>21.76197426708743</v>
+        <v>17.36594759553088</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.98924504394755</v>
+        <v>24.13403711604771</v>
       </c>
       <c r="C25">
-        <v>11.15212332692213</v>
+        <v>11.89549626032825</v>
       </c>
       <c r="D25">
-        <v>4.664040689753968</v>
+        <v>3.97281809223044</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.60075028677333</v>
+        <v>21.56819627617404</v>
       </c>
       <c r="G25">
-        <v>3.621162636745784</v>
+        <v>2.055786726894641</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.72357748912665</v>
+        <v>8.536753378439291</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.15670203904389</v>
+        <v>11.30689602357721</v>
       </c>
       <c r="O25">
-        <v>21.75087766831054</v>
+        <v>16.51369913865861</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.07663203563122</v>
+        <v>18.25302881920679</v>
       </c>
       <c r="C2">
-        <v>11.39404044049916</v>
+        <v>15.48186191455724</v>
       </c>
       <c r="D2">
-        <v>3.852126722539645</v>
+        <v>3.692579684705585</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.42837504740204</v>
+        <v>22.53906871694658</v>
       </c>
       <c r="G2">
-        <v>2.064131436175427</v>
+        <v>31.0758031984581</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.876579042053793</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.339534773933076</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.951973116698094</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.83523251790693</v>
       </c>
       <c r="L2">
-        <v>8.105230574141304</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.55620612419359</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.92620935391318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.27666294354788</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.57399532459048</v>
+        <v>17.11145182469584</v>
       </c>
       <c r="C3">
-        <v>11.0408305685507</v>
+        <v>14.58534364261729</v>
       </c>
       <c r="D3">
-        <v>3.767605083699405</v>
+        <v>3.634010353077474</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.66648333419089</v>
+        <v>21.58232238589202</v>
       </c>
       <c r="G3">
-        <v>2.069999940616098</v>
+        <v>29.55077052002066</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.629841676442642</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.129314157720337</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.780441580589864</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.70009279415949</v>
       </c>
       <c r="L3">
-        <v>7.810635360171686</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.73203110219071</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.55381374399973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.4638082412458</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.59730932864312</v>
+        <v>16.36916209764625</v>
       </c>
       <c r="C4">
-        <v>10.81791113873459</v>
+        <v>14.01045640851322</v>
       </c>
       <c r="D4">
-        <v>3.714475911186521</v>
+        <v>3.597298244270391</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.20546850208293</v>
+        <v>20.98477793219757</v>
       </c>
       <c r="G4">
-        <v>2.073713751600211</v>
+        <v>28.58968284285965</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.649220287235371</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.996842584631818</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.677922937313221</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.62137372917994</v>
       </c>
       <c r="L4">
-        <v>7.629304206397201</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.84338775876082</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.33808120545467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.28990537497131</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.18561760260625</v>
+        <v>16.05588870543118</v>
       </c>
       <c r="C5">
-        <v>10.72564167774155</v>
+        <v>13.78027798452653</v>
       </c>
       <c r="D5">
-        <v>3.6925338395835</v>
+        <v>3.583807180752919</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.01956654830421</v>
+        <v>20.72109111738758</v>
       </c>
       <c r="G5">
-        <v>2.075255693717544</v>
+        <v>28.15954953605462</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.715495659460119</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.942273988964857</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.630679836682091</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.57700785106814</v>
       </c>
       <c r="L5">
-        <v>7.555400387403835</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.88962379480694</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.25344241462576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.79610708679659</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.11642740444385</v>
+        <v>16.00277463892029</v>
       </c>
       <c r="C6">
-        <v>10.71023703864254</v>
+        <v>13.75417351687917</v>
       </c>
       <c r="D6">
-        <v>3.688873329010466</v>
+        <v>3.583591054313297</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.98882415157773</v>
+        <v>20.65520147958182</v>
       </c>
       <c r="G6">
-        <v>2.075513476436292</v>
+        <v>28.04772675506146</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.726669312179489</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.93370292086496</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.615323011690307</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.55344086541754</v>
       </c>
       <c r="L6">
-        <v>7.543131288805388</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.89735312145605</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.23958644747147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.71303621315245</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.59181263557606</v>
+        <v>16.36373623014921</v>
       </c>
       <c r="C7">
-        <v>10.81667241345899</v>
+        <v>14.04078240383488</v>
       </c>
       <c r="D7">
-        <v>3.714181147878845</v>
+        <v>3.602682444342181</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.20295305542603</v>
+        <v>20.92205530851018</v>
       </c>
       <c r="G7">
-        <v>2.073734430281841</v>
+        <v>28.47630484457163</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.650376138267727</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.997242586712746</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.656762905239209</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.57646921923183</v>
       </c>
       <c r="L7">
-        <v>7.628307411492888</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.84400783898737</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.33692645636602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.28290133455413</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.56968833198202</v>
+        <v>17.86648286173939</v>
       </c>
       <c r="C8">
-        <v>11.27356154837282</v>
+        <v>15.21911019427551</v>
       </c>
       <c r="D8">
-        <v>3.823250190170136</v>
+        <v>3.679962583413676</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.16441576081371</v>
+        <v>22.13712736087891</v>
       </c>
       <c r="G8">
-        <v>2.06613241501414</v>
+        <v>30.42130749162246</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.792052113715565</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.268688179072586</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.865690554440524</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.72978218697271</v>
       </c>
       <c r="L8">
-        <v>8.003806169518041</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.61612625943703</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.7951442459136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.66369754721318</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.02351743807369</v>
+        <v>20.48788516388656</v>
       </c>
       <c r="C9">
-        <v>12.1179316656346</v>
+        <v>17.2812834931387</v>
       </c>
       <c r="D9">
-        <v>4.026603555715284</v>
+        <v>3.815327004735048</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.09331076405758</v>
+        <v>24.52606151408265</v>
       </c>
       <c r="G9">
-        <v>2.052066304419019</v>
+        <v>34.19894507210127</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.385566203375826</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.774452800876073</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.33295404020267</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.14463528117421</v>
       </c>
       <c r="L9">
-        <v>8.732573385369612</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.19615755648031</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.79467424172799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.85229105776569</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.30803996787925</v>
+        <v>22.4248419978752</v>
       </c>
       <c r="C10">
-        <v>12.70265229560978</v>
+        <v>18.82298469885198</v>
       </c>
       <c r="D10">
-        <v>4.168667832229551</v>
+        <v>3.941781611092001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.52480862956297</v>
+        <v>25.94231030233058</v>
       </c>
       <c r="G10">
-        <v>2.042192107063036</v>
+        <v>36.3504269128881</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.745257452664787</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.128009826013646</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.58467510900562</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.23972009847404</v>
       </c>
       <c r="L10">
-        <v>9.258754896449309</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.90400619864571</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.58819869814788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.7547060390032</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.29373453335574</v>
+        <v>25.05312913669833</v>
       </c>
       <c r="C11">
-        <v>12.96020770930191</v>
+        <v>20.67718523549299</v>
       </c>
       <c r="D11">
-        <v>4.231532839650209</v>
+        <v>4.284016726911207</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.17715654370865</v>
+        <v>24.41159209418221</v>
       </c>
       <c r="G11">
-        <v>2.037787433399932</v>
+        <v>33.49438269530342</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.182810227939893</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.259819885164955</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.856501830435315</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.40841999418428</v>
       </c>
       <c r="L11">
-        <v>9.495371985998448</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.7746961939437</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.96152061156878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>27.07179158514149</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.65940514788507</v>
+        <v>26.89280227573925</v>
       </c>
       <c r="C12">
-        <v>13.05647549340651</v>
+        <v>21.90740856608474</v>
       </c>
       <c r="D12">
-        <v>4.255072385774373</v>
+        <v>4.571241569019837</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.42422530595135</v>
+        <v>22.89468207239862</v>
       </c>
       <c r="G12">
-        <v>2.036130912842704</v>
+        <v>30.77114597401986</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.241187782114639</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.310848575655173</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.21401188040468</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.94275104688372</v>
       </c>
       <c r="L12">
-        <v>9.584530477791446</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.72625299287463</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.10462347676011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>21.09236812576942</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.58098723619279</v>
+        <v>28.2914210143186</v>
       </c>
       <c r="C13">
-        <v>13.03579937734115</v>
+        <v>22.8041130621028</v>
       </c>
       <c r="D13">
-        <v>4.250014748657847</v>
+        <v>4.835819000848194</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.3710145650921</v>
+        <v>21.16873089535821</v>
       </c>
       <c r="G13">
-        <v>2.036487184035387</v>
+        <v>27.74997490053538</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.48690425401802</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.303396913556658</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.559646428743088</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.61681315093866</v>
       </c>
       <c r="L13">
-        <v>9.565348966258339</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.73666266473153</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.07372716101101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.13420527955549</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.32396995692826</v>
+        <v>29.09082800502215</v>
       </c>
       <c r="C14">
-        <v>12.96815328408636</v>
+        <v>23.30236790782535</v>
       </c>
       <c r="D14">
-        <v>4.233474854032882</v>
+        <v>5.014804440715193</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.19748286973805</v>
+        <v>19.82950372917713</v>
       </c>
       <c r="G14">
-        <v>2.037650927890613</v>
+        <v>25.43068904967135</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.459990441860723</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.273493274665485</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.090112475789432</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.774196163931236</v>
       </c>
       <c r="L14">
-        <v>9.502716229600031</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.77070019508896</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.9732592252745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.97682318097361</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.16555426829993</v>
+        <v>29.19393705951997</v>
       </c>
       <c r="C15">
-        <v>12.9265522968607</v>
+        <v>23.36432303818232</v>
       </c>
       <c r="D15">
-        <v>4.223308680081257</v>
+        <v>5.053272205491495</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.09119155157761</v>
+        <v>19.43407605503407</v>
       </c>
       <c r="G15">
-        <v>2.038365209627626</v>
+        <v>24.75464991657994</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.701551005312843</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.252342382720023</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.966980620313841</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.587972371138035</v>
       </c>
       <c r="L15">
-        <v>9.464292899663912</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.79161763051553</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.91194444563217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.965171857680206</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.24255426464024</v>
+        <v>28.23749392908773</v>
       </c>
       <c r="C16">
-        <v>12.6856462482823</v>
+        <v>22.63910279995762</v>
       </c>
       <c r="D16">
-        <v>4.16452289667724</v>
+        <v>4.950904061772976</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.48218773089743</v>
+        <v>19.01712084182326</v>
       </c>
       <c r="G16">
-        <v>2.042481624473294</v>
+        <v>24.12784285384318</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.487490692010341</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.103890464702827</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.960890472635058</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.804510791162638</v>
       </c>
       <c r="L16">
-        <v>9.243231763670632</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.91252973399296</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.56404593673703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.898880308033293</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.66268554248945</v>
+        <v>27.03630372607121</v>
       </c>
       <c r="C17">
-        <v>12.53565946683753</v>
+        <v>21.79092907097602</v>
       </c>
       <c r="D17">
-        <v>4.127999200795855</v>
+        <v>4.773001034913249</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.10877784883389</v>
+        <v>19.44479999602829</v>
       </c>
       <c r="G17">
-        <v>2.045028476402772</v>
+        <v>24.95251608754907</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.730714111800654</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.004953375503811</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.209465055687595</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.39385574405242</v>
       </c>
       <c r="L17">
-        <v>9.106876627980649</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.98762948998699</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.3537514783292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.12167542428665</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.3241135600563</v>
+        <v>25.49921442195737</v>
       </c>
       <c r="C18">
-        <v>12.44859936966549</v>
+        <v>20.72625277133113</v>
       </c>
       <c r="D18">
-        <v>4.106826698363278</v>
+        <v>4.51319958287991</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.89411634139148</v>
+        <v>20.69160110400987</v>
       </c>
       <c r="G18">
-        <v>2.046501631447331</v>
+        <v>27.20407855103624</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.424557319876092</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.942302557376944</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.720643371226407</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.45353876512947</v>
       </c>
       <c r="L18">
-        <v>9.028192512618844</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.03116230343876</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.2339596142754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.77432547553096</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.20860885033495</v>
+        <v>23.82863779276622</v>
       </c>
       <c r="C19">
-        <v>12.4189879884263</v>
+        <v>19.64523229732</v>
       </c>
       <c r="D19">
-        <v>4.099630119848483</v>
+        <v>4.241959377500795</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.8214596352703</v>
+        <v>22.39706563326238</v>
       </c>
       <c r="G19">
-        <v>2.04700186950559</v>
+        <v>30.24286882081559</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.156852691510717</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.927792265534498</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.37500614810082</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.82406984151558</v>
       </c>
       <c r="L19">
-        <v>9.001509075460799</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.04595954093448</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.1936014282013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>23.07636093590341</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.72493510832523</v>
+        <v>21.9378232204814</v>
       </c>
       <c r="C20">
-        <v>12.55170813479375</v>
+        <v>18.51635152794725</v>
       </c>
       <c r="D20">
-        <v>4.131904388620419</v>
+        <v>3.92801460438073</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.14851719797455</v>
+        <v>25.40998383266255</v>
       </c>
       <c r="G20">
-        <v>2.044756511121151</v>
+        <v>35.50188641114499</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.647519243142266</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.039750131584626</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.45480421660009</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.07281768752794</v>
       </c>
       <c r="L20">
-        <v>9.121418772831623</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.97960002711048</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.37601754042348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33.22534696424427</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.3996672714026</v>
+        <v>23.03656993017224</v>
       </c>
       <c r="C21">
-        <v>12.98805721209254</v>
+        <v>19.43548650759234</v>
       </c>
       <c r="D21">
-        <v>4.238340339509413</v>
+        <v>3.976140506930542</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.24845312746018</v>
+        <v>26.89298248540953</v>
       </c>
       <c r="G21">
-        <v>2.037308806963247</v>
+        <v>37.84895298580296</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.01007387221517</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.313290258361788</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.81353215950325</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.51620659974641</v>
       </c>
       <c r="L21">
-        <v>9.52112534248022</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.76068826213811</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.00272232073938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35.9756601163742</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.45001245402647</v>
+        <v>23.82889365316828</v>
       </c>
       <c r="C22">
-        <v>13.26585804376501</v>
+        <v>20.05191679505537</v>
       </c>
       <c r="D22">
-        <v>4.306346435191772</v>
+        <v>4.014027840409463</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.9675159863195</v>
+        <v>27.77906847755149</v>
       </c>
       <c r="G22">
-        <v>2.032507375980266</v>
+        <v>39.23214563765167</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.214158589073171</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.486397803526037</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.02460262421178</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.7548416373877</v>
       </c>
       <c r="L22">
-        <v>9.779758548829227</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.62067477918844</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.42240441181148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37.26438517595604</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.89342936292165</v>
+        <v>23.41029472771086</v>
       </c>
       <c r="C23">
-        <v>13.11828004602377</v>
+        <v>19.6952265944086</v>
       </c>
       <c r="D23">
-        <v>4.270196606862638</v>
+        <v>3.987199841120506</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.58375427887188</v>
+        <v>27.36221195108121</v>
       </c>
       <c r="G23">
-        <v>2.035064329025692</v>
+        <v>38.59302345277273</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.105708824120059</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.392709058913455</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.93318216967114</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.67540646001335</v>
       </c>
       <c r="L23">
-        <v>9.641971941127933</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.69511962156911</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.19749984159386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36.58157548136775</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.69680827759407</v>
+        <v>21.75254598121972</v>
       </c>
       <c r="C24">
-        <v>12.54445511559739</v>
+        <v>18.34702983222203</v>
       </c>
       <c r="D24">
-        <v>4.130139395877538</v>
+        <v>3.894342283730445</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.1305509758285</v>
+        <v>25.67065380654574</v>
       </c>
       <c r="G24">
-        <v>2.044879438709621</v>
+        <v>35.96795409719867</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.689417149478925</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.035986584187789</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.5587440659805</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.31138233202318</v>
       </c>
       <c r="L24">
-        <v>9.114845174011082</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.98322903592933</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.36594759553088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>33.89257097579124</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.13403711604771</v>
+        <v>19.81177892831781</v>
       </c>
       <c r="C25">
-        <v>11.89549626032825</v>
+        <v>16.79580423691947</v>
       </c>
       <c r="D25">
-        <v>3.97281809223044</v>
+        <v>3.789625024889813</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.56819627617404</v>
+        <v>23.79696376076769</v>
       </c>
       <c r="G25">
-        <v>2.055786726894641</v>
+        <v>33.03368446847628</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.227893610749517</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.642053433110217</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.16922227426398</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.95075186750001</v>
       </c>
       <c r="L25">
-        <v>8.536753378439291</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.30689602357721</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.51369913865861</v>
+        <v>30.76969021946737</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.25302881920679</v>
+        <v>18.22153877848863</v>
       </c>
       <c r="C2">
-        <v>15.48186191455724</v>
+        <v>16.12465552723309</v>
       </c>
       <c r="D2">
-        <v>3.692579684705585</v>
+        <v>3.877449108330174</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.53906871694658</v>
+        <v>21.16672773100804</v>
       </c>
       <c r="G2">
-        <v>31.0758031984581</v>
+        <v>28.06742010772361</v>
       </c>
       <c r="H2">
-        <v>1.876579042053793</v>
+        <v>1.869688703722017</v>
       </c>
       <c r="I2">
-        <v>3.339534773933076</v>
+        <v>3.298519762902912</v>
       </c>
       <c r="J2">
-        <v>9.951973116698094</v>
+        <v>10.07654391663185</v>
       </c>
       <c r="K2">
-        <v>14.83523251790693</v>
+        <v>13.75465665083378</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.39411092309082</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.129060955841346</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.27666294354788</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.26616067848221</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.11145182469584</v>
+        <v>17.10215924584417</v>
       </c>
       <c r="C3">
-        <v>14.58534364261729</v>
+        <v>15.11165718640836</v>
       </c>
       <c r="D3">
-        <v>3.634010353077474</v>
+        <v>3.77616853857872</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.58232238589202</v>
+        <v>20.39600893290492</v>
       </c>
       <c r="G3">
-        <v>29.55077052002066</v>
+        <v>26.84188784196299</v>
       </c>
       <c r="H3">
-        <v>1.629841676442642</v>
+        <v>1.62786073486723</v>
       </c>
       <c r="I3">
-        <v>3.129314157720337</v>
+        <v>3.11809548380076</v>
       </c>
       <c r="J3">
-        <v>9.780441580589864</v>
+        <v>9.945365580669204</v>
       </c>
       <c r="K3">
-        <v>14.70009279415949</v>
+        <v>13.75963300615155</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.51841759803843</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.968909111136469</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.4638082412458</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.46074818758187</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.36916209764625</v>
+        <v>16.37430625754783</v>
       </c>
       <c r="C4">
-        <v>14.01045640851322</v>
+        <v>14.46044984189539</v>
       </c>
       <c r="D4">
-        <v>3.597298244270391</v>
+        <v>3.712896112666083</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.98477793219757</v>
+        <v>19.91539757043798</v>
       </c>
       <c r="G4">
-        <v>28.58968284285965</v>
+        <v>26.0745500174587</v>
       </c>
       <c r="H4">
-        <v>1.649220287235371</v>
+        <v>1.64811774988567</v>
       </c>
       <c r="I4">
-        <v>2.996842584631818</v>
+        <v>3.004474421536556</v>
       </c>
       <c r="J4">
-        <v>9.677922937313221</v>
+        <v>9.864592520378039</v>
       </c>
       <c r="K4">
-        <v>14.62137372917994</v>
+        <v>13.76547379387065</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.59329425351214</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.895201999100012</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.28990537497131</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.29158601123511</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.05588870543118</v>
+        <v>16.06717509108939</v>
       </c>
       <c r="C5">
-        <v>13.78027798452653</v>
+        <v>14.19758823962519</v>
       </c>
       <c r="D5">
-        <v>3.583807180752919</v>
+        <v>3.68867170466656</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.72109111738758</v>
+        <v>19.70169904882007</v>
       </c>
       <c r="G5">
-        <v>28.15954953605462</v>
+        <v>25.72844398826671</v>
       </c>
       <c r="H5">
-        <v>1.715495659460119</v>
+        <v>1.713097022815412</v>
       </c>
       <c r="I5">
-        <v>2.942273988964857</v>
+        <v>2.958021841088198</v>
       </c>
       <c r="J5">
-        <v>9.630679836682091</v>
+        <v>9.826304729528788</v>
       </c>
       <c r="K5">
-        <v>14.57700785106814</v>
+        <v>13.7571912817525</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.61424959830334</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.863489320041237</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.79610708679659</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.79978284451347</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.00277463892029</v>
+        <v>16.0151328071689</v>
       </c>
       <c r="C6">
-        <v>13.75417351687917</v>
+        <v>14.16550308858281</v>
       </c>
       <c r="D6">
-        <v>3.583591054313297</v>
+        <v>3.686862795738376</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.65520147958182</v>
+        <v>19.64631173921008</v>
       </c>
       <c r="G6">
-        <v>28.04772675506146</v>
+        <v>25.63409846822633</v>
       </c>
       <c r="H6">
-        <v>1.726669312179489</v>
+        <v>1.724046333833075</v>
       </c>
       <c r="I6">
-        <v>2.93370292086496</v>
+        <v>2.951198848417434</v>
       </c>
       <c r="J6">
-        <v>9.615323011690307</v>
+        <v>9.813439036590237</v>
       </c>
       <c r="K6">
-        <v>14.55344086541754</v>
+        <v>13.7420642404012</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.60649169353507</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.848856433318095</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.71303621315245</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.71705938592809</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.36373623014921</v>
+        <v>16.36848010782171</v>
       </c>
       <c r="C7">
-        <v>14.04078240383488</v>
+        <v>14.47872956350502</v>
       </c>
       <c r="D7">
-        <v>3.602682444342181</v>
+        <v>3.722601805472672</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.92205530851018</v>
+        <v>19.82712304306435</v>
       </c>
       <c r="G7">
-        <v>28.47630484457163</v>
+        <v>26.04531238302453</v>
       </c>
       <c r="H7">
-        <v>1.650376138267727</v>
+        <v>1.649359025270758</v>
       </c>
       <c r="I7">
-        <v>2.997242586712746</v>
+        <v>3.005240201556573</v>
       </c>
       <c r="J7">
-        <v>9.656762905239209</v>
+        <v>9.789200263712637</v>
       </c>
       <c r="K7">
-        <v>14.57646921923183</v>
+        <v>13.71189793603586</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.55077763598556</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.855866881891557</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.28290133455413</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.28445171902527</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.86648286173939</v>
+        <v>17.84088559497167</v>
       </c>
       <c r="C8">
-        <v>15.21911019427551</v>
+        <v>15.78925882832277</v>
       </c>
       <c r="D8">
-        <v>3.679962583413676</v>
+        <v>3.864022409309471</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.13712736087891</v>
+        <v>20.73419648221236</v>
       </c>
       <c r="G8">
-        <v>30.42130749162246</v>
+        <v>27.7584766419743</v>
       </c>
       <c r="H8">
-        <v>1.792052113715565</v>
+        <v>1.78649401807511</v>
       </c>
       <c r="I8">
-        <v>3.268688179072586</v>
+        <v>3.23676059314228</v>
       </c>
       <c r="J8">
-        <v>9.865690554440524</v>
+        <v>9.822943168604858</v>
       </c>
       <c r="K8">
-        <v>14.72978218697271</v>
+        <v>13.65476933952838</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.36102291502062</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.989135783295027</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.66369754721318</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>27.65519274084943</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.48788516388656</v>
+        <v>20.410091730449</v>
       </c>
       <c r="C9">
-        <v>17.2812834931387</v>
+        <v>18.11208963851695</v>
       </c>
       <c r="D9">
-        <v>3.815327004735048</v>
+        <v>4.106252041575834</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.52606151408265</v>
+        <v>22.65414724852385</v>
       </c>
       <c r="G9">
-        <v>34.19894507210127</v>
+        <v>30.87550583643205</v>
       </c>
       <c r="H9">
-        <v>2.385566203375826</v>
+        <v>2.367811446100969</v>
       </c>
       <c r="I9">
-        <v>3.774452800876073</v>
+        <v>3.669477371591449</v>
       </c>
       <c r="J9">
-        <v>10.33295404020267</v>
+        <v>10.12540757118562</v>
       </c>
       <c r="K9">
-        <v>15.14463528117421</v>
+        <v>13.69217472476588</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.07252325235539</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.535986824481355</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.85229105776569</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>31.82564139559872</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.4248419978752</v>
+        <v>22.30989373494397</v>
       </c>
       <c r="C10">
-        <v>18.82298469885198</v>
+        <v>19.7568177412592</v>
       </c>
       <c r="D10">
-        <v>3.941781611092001</v>
+        <v>4.331526645150814</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.94231030233058</v>
+        <v>23.63847441736216</v>
       </c>
       <c r="G10">
-        <v>36.3504269128881</v>
+        <v>33.02522137110357</v>
       </c>
       <c r="H10">
-        <v>2.745257452664787</v>
+        <v>2.718315476479725</v>
       </c>
       <c r="I10">
-        <v>4.128009826013646</v>
+        <v>3.969581849213985</v>
       </c>
       <c r="J10">
-        <v>10.58467510900562</v>
+        <v>9.962476566046455</v>
       </c>
       <c r="K10">
-        <v>15.23972009847404</v>
+        <v>13.471627835178</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.67804550911656</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.807248818292141</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.7547060390032</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>33.71437491329691</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.05312913669833</v>
+        <v>24.92929351755506</v>
       </c>
       <c r="C11">
-        <v>20.67718523549299</v>
+        <v>21.41229767114665</v>
       </c>
       <c r="D11">
-        <v>4.284016726911207</v>
+        <v>4.750648255364347</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.41159209418221</v>
+        <v>22.03183580924821</v>
       </c>
       <c r="G11">
-        <v>33.49438269530342</v>
+        <v>31.42600184696477</v>
       </c>
       <c r="H11">
-        <v>3.182810227939893</v>
+        <v>3.160088206296411</v>
       </c>
       <c r="I11">
-        <v>4.259819885164955</v>
+        <v>4.080567154365922</v>
       </c>
       <c r="J11">
-        <v>9.856501830435315</v>
+        <v>8.771965434949021</v>
       </c>
       <c r="K11">
-        <v>13.40841999418428</v>
+        <v>11.80991369284905</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.52911279507951</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.552904991523544</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.07179158514149</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>27.02666082928399</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.89280227573925</v>
+        <v>26.76833889589906</v>
       </c>
       <c r="C12">
-        <v>21.90740856608474</v>
+        <v>22.47152709125263</v>
       </c>
       <c r="D12">
-        <v>4.571241569019837</v>
+        <v>5.055181349218498</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.89468207239862</v>
+        <v>20.6252998839375</v>
       </c>
       <c r="G12">
-        <v>30.77114597401986</v>
+        <v>29.54334925820511</v>
       </c>
       <c r="H12">
-        <v>4.241187782114639</v>
+        <v>4.225577097622395</v>
       </c>
       <c r="I12">
-        <v>4.310848575655173</v>
+        <v>4.123069495135515</v>
       </c>
       <c r="J12">
-        <v>9.21401188040468</v>
+        <v>8.043271091441893</v>
       </c>
       <c r="K12">
-        <v>11.94275104688372</v>
+        <v>10.62236035131764</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.801046783055421</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.525221357916251</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.09236812576942</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>21.04397031886885</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.2914210143186</v>
+        <v>28.17342774780716</v>
       </c>
       <c r="C13">
-        <v>22.8041130621028</v>
+        <v>23.22664781888707</v>
       </c>
       <c r="D13">
-        <v>4.835819000848194</v>
+        <v>5.279632021327273</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.16873089535821</v>
+        <v>19.24123095112973</v>
       </c>
       <c r="G13">
-        <v>27.74997490053538</v>
+        <v>26.96891985741679</v>
       </c>
       <c r="H13">
-        <v>5.48690425401802</v>
+        <v>5.476461044350573</v>
       </c>
       <c r="I13">
-        <v>4.303396913556658</v>
+        <v>4.118806129138784</v>
       </c>
       <c r="J13">
-        <v>8.559646428743088</v>
+        <v>7.672885200158955</v>
       </c>
       <c r="K13">
-        <v>10.61681315093866</v>
+        <v>9.707666221731724</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.304407176478097</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.593233961797328</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.13420527955549</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.08160981796905</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.09082800502215</v>
+        <v>28.98026416846468</v>
       </c>
       <c r="C14">
-        <v>23.30236790782535</v>
+        <v>23.63623430124911</v>
       </c>
       <c r="D14">
-        <v>5.014804440715193</v>
+        <v>5.402881810243478</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.82950372917713</v>
+        <v>18.24947735769656</v>
       </c>
       <c r="G14">
-        <v>25.43068904967135</v>
+        <v>24.79634448607747</v>
       </c>
       <c r="H14">
-        <v>6.459990441860723</v>
+        <v>6.466211986301566</v>
       </c>
       <c r="I14">
-        <v>4.273493274665485</v>
+        <v>4.096436331363992</v>
       </c>
       <c r="J14">
-        <v>8.090112475789432</v>
+        <v>7.548448642217122</v>
       </c>
       <c r="K14">
-        <v>9.774196163931236</v>
+        <v>9.196608276671762</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.051128078638943</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.989336510539666</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.97682318097361</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.91771529683038</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.19393705951997</v>
+        <v>29.08687391032431</v>
       </c>
       <c r="C15">
-        <v>23.36432303818232</v>
+        <v>23.68173849969142</v>
       </c>
       <c r="D15">
-        <v>5.053272205491495</v>
+        <v>5.41718983576178</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.43407605503407</v>
+        <v>17.9865897403409</v>
       </c>
       <c r="G15">
-        <v>24.75464991657994</v>
+        <v>24.08595745222205</v>
       </c>
       <c r="H15">
-        <v>6.701551005312843</v>
+        <v>6.707556219163495</v>
       </c>
       <c r="I15">
-        <v>4.252342382720023</v>
+        <v>4.080329983681801</v>
       </c>
       <c r="J15">
-        <v>7.966980620313841</v>
+        <v>7.570750940559566</v>
       </c>
       <c r="K15">
-        <v>9.587972371138035</v>
+        <v>9.108298350507217</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.01302348752067</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.855282468983764</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.965171857680206</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.9042104188133</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.23749392908773</v>
+        <v>28.14707463736894</v>
       </c>
       <c r="C16">
-        <v>22.63910279995762</v>
+        <v>23.00936243649666</v>
       </c>
       <c r="D16">
-        <v>4.950904061772976</v>
+        <v>5.233689786594621</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.01712084182326</v>
+        <v>17.95009417326528</v>
       </c>
       <c r="G16">
-        <v>24.12784285384318</v>
+        <v>22.84901276454558</v>
       </c>
       <c r="H16">
-        <v>6.487490692010341</v>
+        <v>6.493158178141662</v>
       </c>
       <c r="I16">
-        <v>4.103890464702827</v>
+        <v>3.959580677924658</v>
       </c>
       <c r="J16">
-        <v>7.960890472635058</v>
+        <v>8.073729527603641</v>
       </c>
       <c r="K16">
-        <v>9.804510791162638</v>
+        <v>9.455446980440954</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.237983462017025</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.032568575763553</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.898880308033293</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.846855089472328</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.03630372607121</v>
+        <v>26.95456389295855</v>
       </c>
       <c r="C17">
-        <v>21.79092907097602</v>
+        <v>22.23834024737495</v>
       </c>
       <c r="D17">
-        <v>4.773001034913249</v>
+        <v>5.034289050363079</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.44479999602829</v>
+        <v>18.43652420178732</v>
       </c>
       <c r="G17">
-        <v>24.95251608754907</v>
+        <v>23.21778660692686</v>
       </c>
       <c r="H17">
-        <v>5.730714111800654</v>
+        <v>5.736511338612229</v>
       </c>
       <c r="I17">
-        <v>4.004953375503811</v>
+        <v>3.877373973016598</v>
       </c>
       <c r="J17">
-        <v>8.209465055687595</v>
+        <v>8.483490996707262</v>
       </c>
       <c r="K17">
-        <v>10.39385574405242</v>
+        <v>9.978484942577236</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.561582440216085</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.459169917942108</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.12167542428665</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.08021074270283</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.49921442195737</v>
+        <v>25.42023344303616</v>
       </c>
       <c r="C18">
-        <v>20.72625277133113</v>
+        <v>21.29707750707749</v>
       </c>
       <c r="D18">
-        <v>4.51319958287991</v>
+        <v>4.787221384469778</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.69160110400987</v>
+        <v>19.52362828540172</v>
       </c>
       <c r="G18">
-        <v>27.20407855103624</v>
+        <v>24.95758921308806</v>
       </c>
       <c r="H18">
-        <v>4.424557319876092</v>
+        <v>4.427080317913611</v>
       </c>
       <c r="I18">
-        <v>3.942302557376944</v>
+        <v>3.822689897352357</v>
       </c>
       <c r="J18">
-        <v>8.720643371226407</v>
+        <v>8.966451774175408</v>
       </c>
       <c r="K18">
-        <v>11.45353876512947</v>
+        <v>10.81004294448551</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.08093300914373</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.205462610650098</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.77432547553096</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.74070467233452</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.82863779276622</v>
+        <v>23.74649216460663</v>
       </c>
       <c r="C19">
-        <v>19.64523229732</v>
+        <v>20.36387337189939</v>
       </c>
       <c r="D19">
-        <v>4.241959377500795</v>
+        <v>4.541555431893169</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.39706563326238</v>
+        <v>20.94115443789509</v>
       </c>
       <c r="G19">
-        <v>30.24286882081559</v>
+        <v>27.43763817033033</v>
       </c>
       <c r="H19">
-        <v>3.156852691510717</v>
+        <v>3.144461805019272</v>
       </c>
       <c r="I19">
-        <v>3.927792265534498</v>
+        <v>3.809643501996018</v>
       </c>
       <c r="J19">
-        <v>9.37500614810082</v>
+        <v>9.489277657767689</v>
       </c>
       <c r="K19">
-        <v>12.82406984151558</v>
+        <v>11.84984075679317</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.74205932638051</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.144834739722214</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.07636093590341</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>23.04554664035344</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.9378232204814</v>
+        <v>21.83448333922721</v>
       </c>
       <c r="C20">
-        <v>18.51635152794725</v>
+        <v>19.44880715846666</v>
       </c>
       <c r="D20">
-        <v>3.92801460438073</v>
+        <v>4.279348735425688</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.40998383266255</v>
+        <v>23.33021865433852</v>
       </c>
       <c r="G20">
-        <v>35.50188641114499</v>
+        <v>31.98563146155383</v>
       </c>
       <c r="H20">
-        <v>2.647519243142266</v>
+        <v>2.623421612907649</v>
       </c>
       <c r="I20">
-        <v>4.039750131584626</v>
+        <v>3.900874575977754</v>
       </c>
       <c r="J20">
-        <v>10.45480421660009</v>
+        <v>10.14049462814538</v>
       </c>
       <c r="K20">
-        <v>15.07281768752794</v>
+        <v>13.46510486517085</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.73906932839869</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.676215364947055</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.22534696424427</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>33.18927340389237</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03656993017224</v>
+        <v>22.89538862290774</v>
       </c>
       <c r="C21">
-        <v>19.43548650759234</v>
+        <v>20.32151338948105</v>
       </c>
       <c r="D21">
-        <v>3.976140506930542</v>
+        <v>4.477383718374927</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.89298248540953</v>
+        <v>23.92829327928987</v>
       </c>
       <c r="G21">
-        <v>37.84895298580296</v>
+        <v>35.33379770584028</v>
       </c>
       <c r="H21">
-        <v>3.01007387221517</v>
+        <v>2.976604167714304</v>
       </c>
       <c r="I21">
-        <v>4.313290258361788</v>
+        <v>4.12128748268249</v>
       </c>
       <c r="J21">
-        <v>10.81353215950325</v>
+        <v>9.184959868590207</v>
       </c>
       <c r="K21">
-        <v>15.51620659974641</v>
+        <v>13.29953708130549</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.43977677251171</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.904648902461236</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.9756601163742</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>35.92562575135531</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.82889365316828</v>
+        <v>23.66385771235926</v>
       </c>
       <c r="C22">
-        <v>20.05191679505537</v>
+        <v>20.8917975615115</v>
       </c>
       <c r="D22">
-        <v>4.014027840409463</v>
+        <v>4.618591831934384</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.77906847755149</v>
+        <v>24.23603335416429</v>
       </c>
       <c r="G22">
-        <v>39.23214563765167</v>
+        <v>37.45423551474396</v>
       </c>
       <c r="H22">
-        <v>3.214158589073171</v>
+        <v>3.174654672597767</v>
       </c>
       <c r="I22">
-        <v>4.486397803526037</v>
+        <v>4.259198006971235</v>
       </c>
       <c r="J22">
-        <v>11.02460262421178</v>
+        <v>8.510830730899789</v>
       </c>
       <c r="K22">
-        <v>15.7548416373877</v>
+        <v>13.13465470385792</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.20941490754897</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.014369525065645</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.26438517595604</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.20526399645281</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.41029472771086</v>
+        <v>23.25869604503336</v>
       </c>
       <c r="C23">
-        <v>19.6952265944086</v>
+        <v>20.58101316985447</v>
       </c>
       <c r="D23">
-        <v>3.987199841120506</v>
+        <v>4.524983848009257</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.36221195108121</v>
+        <v>24.18898890445285</v>
       </c>
       <c r="G23">
-        <v>38.59302345277273</v>
+        <v>36.26102256115741</v>
       </c>
       <c r="H23">
-        <v>3.105708824120059</v>
+        <v>3.069616513012762</v>
       </c>
       <c r="I23">
-        <v>4.392709058913455</v>
+        <v>4.184164306285433</v>
       </c>
       <c r="J23">
-        <v>10.93318216967114</v>
+        <v>9.009846278853239</v>
       </c>
       <c r="K23">
-        <v>15.67540646001335</v>
+        <v>13.30186022454566</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.381973756276</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.024280182656511</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.58157548136775</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.52759471946784</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.75254598121972</v>
+        <v>21.64837529698983</v>
       </c>
       <c r="C24">
-        <v>18.34702983222203</v>
+        <v>19.29488065807852</v>
       </c>
       <c r="D24">
-        <v>3.894342283730445</v>
+        <v>4.243245068044252</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.67065380654574</v>
+        <v>23.55722248832662</v>
       </c>
       <c r="G24">
-        <v>35.96795409719867</v>
+        <v>32.37186685333109</v>
       </c>
       <c r="H24">
-        <v>2.689417149478925</v>
+        <v>2.665172303682437</v>
       </c>
       <c r="I24">
-        <v>4.035986584187789</v>
+        <v>3.89492253684408</v>
       </c>
       <c r="J24">
-        <v>10.5587440659805</v>
+        <v>10.23321223207444</v>
       </c>
       <c r="K24">
-        <v>15.31138233202318</v>
+        <v>13.65873406472974</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.86992867501483</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.837575273631058</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.89257097579124</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>33.85630575554728</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.81177892831781</v>
+        <v>19.74855495131013</v>
       </c>
       <c r="C25">
-        <v>16.79580423691947</v>
+        <v>17.5705889935296</v>
       </c>
       <c r="D25">
-        <v>3.789625024889813</v>
+        <v>4.047483241835484</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.79696376076769</v>
+        <v>22.09841595584879</v>
       </c>
       <c r="G25">
-        <v>33.03368446847628</v>
+        <v>29.80138057804941</v>
       </c>
       <c r="H25">
-        <v>2.227893610749517</v>
+        <v>2.213621284503048</v>
       </c>
       <c r="I25">
-        <v>3.642053433110217</v>
+        <v>3.55924192050483</v>
       </c>
       <c r="J25">
-        <v>10.16922227426398</v>
+        <v>10.09164733280267</v>
       </c>
       <c r="K25">
-        <v>14.95075186750001</v>
+        <v>13.63577496325127</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.12177921556863</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.332637132301016</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.76969021946737</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>30.74819984555004</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
